--- a/Codigos/FB.xlsx
+++ b/Codigos/FB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andresmartinez/Google Drive/ULasalle/2020-I/Riesgos/Github/Riesgos/Codigos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{377D3AC8-9B81-0549-A390-8969FAE063E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4F1365-EF20-FB4A-A6FE-7DC52451B326}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="960" windowWidth="27840" windowHeight="16040" activeTab="2"/>
+    <workbookView xWindow="680" yWindow="960" windowWidth="27840" windowHeight="16040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Diagramm1" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
   <si>
     <t>Date</t>
   </si>
@@ -90,16 +90,50 @@
   <si>
     <t>Historica</t>
   </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>Histórico</t>
+  </si>
+  <si>
+    <t>Valor Esperado</t>
+  </si>
+  <si>
+    <t>Varianza</t>
+  </si>
+  <si>
+    <t>Valor Esperado^2</t>
+  </si>
+  <si>
+    <t>Desv Estandar</t>
+  </si>
+  <si>
+    <t>Optimo</t>
+  </si>
+  <si>
+    <t>Malo</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="4">
-    <numFmt numFmtId="166" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00000"/>
-    <numFmt numFmtId="169" formatCode="0.000%"/>
-    <numFmt numFmtId="173" formatCode="#,##0.00000000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="8">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.000%"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00000000"/>
+    <numFmt numFmtId="170" formatCode="0.0%"/>
+    <numFmt numFmtId="171" formatCode="0.0000%"/>
+    <numFmt numFmtId="172" formatCode="0.00000%"/>
   </numFmts>
   <fonts count="18">
     <font>
@@ -237,7 +271,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -417,6 +451,30 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -534,7 +592,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -578,19 +636,32 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="43" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="44">
     <cellStyle name="20 % - Akzent1" xfId="20" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20 % - Akzent2" xfId="24" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20 % - Akzent3" xfId="28" builtinId="38" customBuiltin="1"/>
@@ -617,6 +688,7 @@
     <cellStyle name="Akzent6" xfId="39" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Ausgabe" xfId="11" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Berechnung" xfId="12" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Dezimal [0]" xfId="43" builtinId="6"/>
     <cellStyle name="Eingabe" xfId="10" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Ergebnis" xfId="18" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Erklärender Text" xfId="17" builtinId="53" customBuiltin="1"/>
@@ -3705,7 +3777,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="118" workbookViewId="0" zoomToFit="1"/>
@@ -3716,7 +3788,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="118" workbookViewId="0" zoomToFit="1"/>
@@ -3802,8 +3874,8 @@
       <xdr:rowOff>68438</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="282770" cy="181332"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="Textfeld 3">
@@ -3845,6 +3917,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -3891,7 +3964,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="Textfeld 3">
@@ -4253,11 +4326,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N256"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:S260"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4267,6 +4340,9 @@
     <col min="5" max="5" width="12.5" customWidth="1"/>
     <col min="6" max="6" width="15.33203125" customWidth="1"/>
     <col min="7" max="8" width="12.5" customWidth="1"/>
+    <col min="11" max="11" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -4854,11 +4930,27 @@
         <v>1.4484061322289485E-12</v>
       </c>
       <c r="H16" s="5"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="I16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="7">
+        <v>8.9999999999999998E-4</v>
+      </c>
       <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="L16" s="12">
+        <f>+(1+N16)^(1/52)-1</f>
+        <v>1.7300058160252263E-5</v>
+      </c>
+      <c r="M16" s="11">
+        <f>+(1+N16)^(1/12)-1</f>
+        <v>7.4969080277487166E-5</v>
+      </c>
+      <c r="N16" s="10">
+        <f>+J16</f>
+        <v>8.9999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>43711</v>
       </c>
@@ -4890,7 +4982,7 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>43712</v>
       </c>
@@ -4918,11 +5010,16 @@
         <v>3.6556659339861779E-9</v>
       </c>
       <c r="H18" s="5"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
+      <c r="I18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="9">
+        <f>+((1+L16)-J14)/(J13-J14)</f>
+        <v>0.48539933876609864</v>
+      </c>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>43713</v>
       </c>
@@ -4950,11 +5047,22 @@
         <v>2.3037477210358768E-9</v>
       </c>
       <c r="H19" s="5"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
+      <c r="I19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" s="9">
+        <f>1-J18</f>
+        <v>0.51460066123390136</v>
+      </c>
       <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="L19" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>43714</v>
       </c>
@@ -4986,7 +5094,7 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>43717</v>
       </c>
@@ -5017,8 +5125,12 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="O21">
+        <f>+N22*J13</f>
+        <v>308.7738589368451</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>43718</v>
       </c>
@@ -5049,8 +5161,12 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="N22">
+        <f>+M23*J13</f>
+        <v>291.08151757980926</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>43719</v>
       </c>
@@ -5081,8 +5197,16 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="M23">
+        <f>+J13*L24</f>
+        <v>274.40292441950112</v>
+      </c>
+      <c r="O23">
+        <f>+M23</f>
+        <v>274.40292441950112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>43720</v>
       </c>
@@ -5113,8 +5237,16 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="L24" s="2">
+        <f>+B254</f>
+        <v>258.67999300000002</v>
+      </c>
+      <c r="N24" s="2">
+        <f>+L24</f>
+        <v>258.67999300000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>43721</v>
       </c>
@@ -5145,8 +5277,16 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="M25">
+        <f>+L24*J14</f>
+        <v>243.85796514391873</v>
+      </c>
+      <c r="O25">
+        <f>+M25</f>
+        <v>243.85796514391873</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="1">
         <v>43724</v>
       </c>
@@ -5177,8 +5317,12 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="N26">
+        <f>+M25*J14</f>
+        <v>229.88522024636313</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="1">
         <v>43725</v>
       </c>
@@ -5209,8 +5353,12 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="O27">
+        <f>+N26*J14</f>
+        <v>216.71309549610083</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="1">
         <v>43726</v>
       </c>
@@ -5242,7 +5390,7 @@
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:15">
       <c r="A29" s="1">
         <v>43727</v>
       </c>
@@ -5273,8 +5421,20 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>2</v>
+      </c>
+      <c r="O29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" s="1">
         <v>43728</v>
       </c>
@@ -5306,7 +5466,7 @@
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:15">
       <c r="A31" s="1">
         <v>43731</v>
       </c>
@@ -5336,9 +5496,23 @@
       <c r="H31" s="5"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="K31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M31">
+        <f>+M23*J18+M25*J19</f>
+        <v>258.68446817892385</v>
+      </c>
+      <c r="N31">
+        <f>+N22*J18^2+2*N24*J18*J19+N26*J19^2</f>
+        <v>258.68894343526847</v>
+      </c>
+      <c r="O31">
+        <f>+O21*J18^3+3*O23*J18^2*J19+3*O25*J19^2*J18+O27*J19^3</f>
+        <v>258.69341876903536</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" s="1">
         <v>43732</v>
       </c>
@@ -5368,9 +5542,23 @@
       <c r="H32" s="5"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="K32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M32">
+        <f>+M23^2*J18+M25^2*J19</f>
+        <v>67150.703816169174</v>
+      </c>
+      <c r="N32">
+        <f>+N22^2*J18^2+2*N24^2*J18*J19+N26^2*J19^2</f>
+        <v>67386.896716377945</v>
+      </c>
+      <c r="O32">
+        <f>+O21^2*J18^3+3*O23^2*J18^2*J19+3*O25^2*J19^2*J18+O27^2*J19^3</f>
+        <v>67623.920390993255</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
       <c r="A33" s="1">
         <v>43733</v>
       </c>
@@ -5400,9 +5588,23 @@
       <c r="H33" s="5"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="K33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M33">
+        <f>+M32-M31^2</f>
+        <v>233.04973915651499</v>
+      </c>
+      <c r="N33">
+        <f t="shared" ref="N33:O33" si="5">+N32-N31^2</f>
+        <v>466.92726072241203</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="5"/>
+        <v>701.6354765817523</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19">
       <c r="A34" s="1">
         <v>43734</v>
       </c>
@@ -5432,9 +5634,23 @@
       <c r="H34" s="5"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-    </row>
-    <row r="35" spans="1:11">
+      <c r="K34" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M34">
+        <f>+SQRT(M33)</f>
+        <v>15.265966695775115</v>
+      </c>
+      <c r="N34">
+        <f t="shared" ref="N34:O34" si="6">+SQRT(N33)</f>
+        <v>21.608499733262651</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="6"/>
+        <v>26.488402680829065</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19">
       <c r="A35" s="1">
         <v>43735</v>
       </c>
@@ -5464,9 +5680,27 @@
       <c r="H35" s="5"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-    </row>
-    <row r="36" spans="1:11">
+      <c r="K35" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M35" s="14">
+        <f>+M31+M34</f>
+        <v>273.95043487469894</v>
+      </c>
+      <c r="N35" s="14">
+        <f t="shared" ref="N35:O35" si="7">+N31+N34</f>
+        <v>280.29744316853112</v>
+      </c>
+      <c r="O35" s="14">
+        <f t="shared" si="7"/>
+        <v>285.1818214498644</v>
+      </c>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="16"/>
+      <c r="R35" s="16"/>
+      <c r="S35" s="16"/>
+    </row>
+    <row r="36" spans="1:19">
       <c r="A36" s="1">
         <v>43738</v>
       </c>
@@ -5496,9 +5730,27 @@
       <c r="H36" s="5"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-    </row>
-    <row r="37" spans="1:11">
+      <c r="K36" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M36" s="15">
+        <f>+M31-M34</f>
+        <v>243.41850148314873</v>
+      </c>
+      <c r="N36" s="15">
+        <f t="shared" ref="N36:O36" si="8">+N31-N34</f>
+        <v>237.08044370200582</v>
+      </c>
+      <c r="O36" s="15">
+        <f t="shared" si="8"/>
+        <v>232.20501608820629</v>
+      </c>
+      <c r="P36" s="16"/>
+      <c r="Q36" s="16"/>
+      <c r="R36" s="16"/>
+      <c r="S36" s="16"/>
+    </row>
+    <row r="37" spans="1:19">
       <c r="A37" s="1">
         <v>43739</v>
       </c>
@@ -5529,8 +5781,12 @@
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="P37" s="16"/>
+      <c r="Q37" s="16"/>
+      <c r="R37" s="16"/>
+      <c r="S37" s="16"/>
+    </row>
+    <row r="38" spans="1:19">
       <c r="A38" s="1">
         <v>43740</v>
       </c>
@@ -5560,9 +5816,15 @@
       <c r="H38" s="5"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="1:11">
+      <c r="K38" s="9"/>
+      <c r="L38" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="M38" s="13"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="13"/>
+    </row>
+    <row r="39" spans="1:19">
       <c r="A39" s="1">
         <v>43741</v>
       </c>
@@ -5592,9 +5854,9 @@
       <c r="H39" s="5"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-    </row>
-    <row r="40" spans="1:11">
+      <c r="K39" s="9"/>
+    </row>
+    <row r="40" spans="1:19">
       <c r="A40" s="1">
         <v>43742</v>
       </c>
@@ -5625,8 +5887,12 @@
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
-    </row>
-    <row r="41" spans="1:11">
+      <c r="O40">
+        <f>+N41*K13</f>
+        <v>310.27193129904168</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19">
       <c r="A41" s="1">
         <v>43745</v>
       </c>
@@ -5657,8 +5923,12 @@
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
-    </row>
-    <row r="42" spans="1:11">
+      <c r="N41">
+        <f>+M42*K13</f>
+        <v>292.02224775546546</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19">
       <c r="A42" s="1">
         <v>43746</v>
       </c>
@@ -5689,8 +5959,16 @@
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
-    </row>
-    <row r="43" spans="1:11">
+      <c r="M42">
+        <f>+L43*K13</f>
+        <v>274.84598051495692</v>
+      </c>
+      <c r="O42">
+        <f>+M42</f>
+        <v>274.84598051495692</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19">
       <c r="A43" s="1">
         <v>43747</v>
       </c>
@@ -5718,11 +5996,24 @@
         <v>2.7504055046768507E-9</v>
       </c>
       <c r="H43" s="5"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
+      <c r="I43" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J43" s="6">
+        <f>+J18</f>
+        <v>0.48539933876609864</v>
+      </c>
       <c r="K43" s="2"/>
-    </row>
-    <row r="44" spans="1:11">
+      <c r="L43" s="2">
+        <f>+L24</f>
+        <v>258.67999300000002</v>
+      </c>
+      <c r="N43" s="2">
+        <f>+L43</f>
+        <v>258.67999300000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19">
       <c r="A44" s="1">
         <v>43748</v>
       </c>
@@ -5750,11 +6041,24 @@
         <v>2.0999694165477665E-11</v>
       </c>
       <c r="H44" s="5"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
+      <c r="I44" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J44" s="6">
+        <f>+J19</f>
+        <v>0.51460066123390136</v>
+      </c>
       <c r="K44" s="2"/>
-    </row>
-    <row r="45" spans="1:11">
+      <c r="M44" s="4">
+        <f>+K14*L43</f>
+        <v>243.46486222249331</v>
+      </c>
+      <c r="O44">
+        <f>+M44</f>
+        <v>243.46486222249331</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19">
       <c r="A45" s="1">
         <v>43749</v>
       </c>
@@ -5785,8 +6089,12 @@
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
-    </row>
-    <row r="46" spans="1:11">
+      <c r="N45">
+        <f>+M44*K14</f>
+        <v>229.14466035654192</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19">
       <c r="A46" s="1">
         <v>43752</v>
       </c>
@@ -5817,8 +6125,12 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
-    </row>
-    <row r="47" spans="1:11">
+      <c r="O46">
+        <f>+N45*K14</f>
+        <v>215.66674915877817</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19">
       <c r="A47" s="1">
         <v>43753</v>
       </c>
@@ -5850,7 +6162,7 @@
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:19">
       <c r="A48" s="1">
         <v>43754</v>
       </c>
@@ -5881,8 +6193,20 @@
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
-    </row>
-    <row r="49" spans="1:11">
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+      <c r="N48">
+        <v>2</v>
+      </c>
+      <c r="O48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49" s="1">
         <v>43755</v>
       </c>
@@ -5914,7 +6238,7 @@
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:15">
       <c r="A50" s="1">
         <v>43756</v>
       </c>
@@ -5944,9 +6268,23 @@
       <c r="H50" s="5"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-    </row>
-    <row r="51" spans="1:11">
+      <c r="K50" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M50">
+        <f>+M42*J43+M44*J44</f>
+        <v>258.69723629139588</v>
+      </c>
+      <c r="N50">
+        <f>+N41*J43^2+2*N43*J43*J44+N45*J44^2</f>
+        <v>258.71448073220836</v>
+      </c>
+      <c r="O50">
+        <f>+O40*J43^3+3*O42*J43^2*J44+3*O44*J44^2*J43+O46*J44^3</f>
+        <v>258.73172632251419</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51" s="1">
         <v>43759</v>
       </c>
@@ -5976,9 +6314,23 @@
       <c r="H51" s="5"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-    </row>
-    <row r="52" spans="1:11">
+      <c r="K51" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M51">
+        <f>+M42^2*J43+M44^2*J44</f>
+        <v>67170.243777562617</v>
+      </c>
+      <c r="N51">
+        <f>+N41^2*J43^2+2*N43^2*J43*J44+N45^2*J44^2</f>
+        <v>67426.119803015841</v>
+      </c>
+      <c r="O51">
+        <f>+O40^2*J43^3+3*O42^2*J43^2*J44+3*O44^2*J44^2*J43+O46^2*J44^3</f>
+        <v>67682.97055383437</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52" s="1">
         <v>43760</v>
       </c>
@@ -6008,9 +6360,23 @@
       <c r="H52" s="5"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-    </row>
-    <row r="53" spans="1:11">
+      <c r="K52" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M52">
+        <f>+M51-M50^2</f>
+        <v>245.9837127563078</v>
+      </c>
+      <c r="N52">
+        <f t="shared" ref="N52" si="9">+N51-N50^2</f>
+        <v>492.93726247963787</v>
+      </c>
+      <c r="O52">
+        <f t="shared" ref="O52" si="10">+O51-O50^2</f>
+        <v>740.86434800598363</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53" s="1">
         <v>43761</v>
       </c>
@@ -6040,9 +6406,23 @@
       <c r="H53" s="5"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-    </row>
-    <row r="54" spans="1:11">
+      <c r="K53" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M53">
+        <f>+SQRT(M52)</f>
+        <v>15.683867914398789</v>
+      </c>
+      <c r="N53">
+        <f t="shared" ref="N53" si="11">+SQRT(N52)</f>
+        <v>22.202190488319793</v>
+      </c>
+      <c r="O53">
+        <f t="shared" ref="O53" si="12">+SQRT(O52)</f>
+        <v>27.218823413328938</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54" s="1">
         <v>43762</v>
       </c>
@@ -6072,9 +6452,23 @@
       <c r="H54" s="5"/>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-    </row>
-    <row r="55" spans="1:11">
+      <c r="K54" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M54" s="17">
+        <f>+M50+M53</f>
+        <v>274.38110420579466</v>
+      </c>
+      <c r="N54" s="17">
+        <f t="shared" ref="N54" si="13">+N50+N53</f>
+        <v>280.91667122052814</v>
+      </c>
+      <c r="O54" s="17">
+        <f t="shared" ref="O54" si="14">+O50+O53</f>
+        <v>285.95054973584314</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55" s="1">
         <v>43763</v>
       </c>
@@ -6104,9 +6498,23 @@
       <c r="H55" s="5"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-    </row>
-    <row r="56" spans="1:11">
+      <c r="K55" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M55" s="15">
+        <f>+M50-M53</f>
+        <v>243.01336837699711</v>
+      </c>
+      <c r="N55" s="15">
+        <f t="shared" ref="N55:O55" si="15">+N50-N53</f>
+        <v>236.51229024388857</v>
+      </c>
+      <c r="O55" s="15">
+        <f t="shared" si="15"/>
+        <v>231.51290290918524</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56" s="1">
         <v>43766</v>
       </c>
@@ -6138,7 +6546,7 @@
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:15">
       <c r="A57" s="1">
         <v>43767</v>
       </c>
@@ -6168,9 +6576,24 @@
       <c r="H57" s="5"/>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
-      <c r="K57" s="2"/>
-    </row>
-    <row r="58" spans="1:11">
+      <c r="K57" s="2">
+        <f>100*L43</f>
+        <v>25867.999300000003</v>
+      </c>
+      <c r="M57">
+        <f>+M55*100</f>
+        <v>24301.33683769971</v>
+      </c>
+      <c r="N57">
+        <f>100*N55</f>
+        <v>23651.229024388856</v>
+      </c>
+      <c r="O57">
+        <f>+O55*100</f>
+        <v>23151.290290918525</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58" s="1">
         <v>43768</v>
       </c>
@@ -6201,8 +6624,20 @@
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
-    </row>
-    <row r="59" spans="1:11">
+      <c r="M58" s="2">
+        <f>+M57-K57</f>
+        <v>-1566.6624623002936</v>
+      </c>
+      <c r="N58" s="2">
+        <f>+N57-K57</f>
+        <v>-2216.7702756111466</v>
+      </c>
+      <c r="O58" s="2">
+        <f>+O57-K57</f>
+        <v>-2716.7090090814781</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59" s="1">
         <v>43769</v>
       </c>
@@ -6234,7 +6669,7 @@
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:15">
       <c r="A60" s="1">
         <v>43770</v>
       </c>
@@ -6264,9 +6699,24 @@
       <c r="H60" s="5"/>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
-      <c r="K60" s="2"/>
-    </row>
-    <row r="61" spans="1:11">
+      <c r="K60" s="2">
+        <f>3800*L43</f>
+        <v>982983.97340000013</v>
+      </c>
+      <c r="M60" s="18">
+        <f>+M55*3800</f>
+        <v>923450.79983258899</v>
+      </c>
+      <c r="N60" s="18">
+        <f t="shared" ref="N60:O60" si="16">+N55*3800</f>
+        <v>898746.7029267766</v>
+      </c>
+      <c r="O60" s="18">
+        <f t="shared" si="16"/>
+        <v>879749.03105490387</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61" s="1">
         <v>43773</v>
       </c>
@@ -6297,8 +6747,20 @@
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
-    </row>
-    <row r="62" spans="1:11">
+      <c r="M61" s="2">
+        <f>+M60-K60</f>
+        <v>-59533.173567411141</v>
+      </c>
+      <c r="N61" s="2">
+        <f>+N60-K60</f>
+        <v>-84237.270473223529</v>
+      </c>
+      <c r="O61" s="2">
+        <f>+O60-K60</f>
+        <v>-103234.94234509626</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62" s="1">
         <v>43774</v>
       </c>
@@ -6330,7 +6792,7 @@
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:15">
       <c r="A63" s="1">
         <v>43775</v>
       </c>
@@ -6362,7 +6824,7 @@
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:15">
       <c r="A64" s="1">
         <v>43776</v>
       </c>
@@ -6498,11 +6960,11 @@
         <v>193.19000199999999</v>
       </c>
       <c r="C68" s="5">
-        <f t="shared" ref="C68:C131" si="5">+LN(B68/B67)</f>
+        <f t="shared" ref="C68:C131" si="17">+LN(B68/B67)</f>
         <v>-6.603743702006862E-3</v>
       </c>
       <c r="D68" s="5">
-        <f t="shared" ref="D68:D131" si="6">+C68^2</f>
+        <f t="shared" ref="D68:D131" si="18">+C68^2</f>
         <v>4.3609430881795293E-5</v>
       </c>
       <c r="E68" s="2">
@@ -6510,11 +6972,11 @@
         <v>187</v>
       </c>
       <c r="F68" s="8">
-        <f t="shared" ref="F68:F131" si="7">+$J$9^(E68-1)</f>
+        <f t="shared" ref="F68:F131" si="19">+$J$9^(E68-1)</f>
         <v>7.1877106166902651E-5</v>
       </c>
       <c r="G68" s="5">
-        <f t="shared" ref="G68:G131" si="8">+F68*D68</f>
+        <f t="shared" ref="G68:G131" si="20">+F68*D68</f>
         <v>3.1345196933690034E-9</v>
       </c>
       <c r="H68" s="5"/>
@@ -6530,23 +6992,23 @@
         <v>193.14999399999999</v>
       </c>
       <c r="C69" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-2.0711290861546904E-4</v>
       </c>
       <c r="D69" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>4.2895756915159633E-8</v>
       </c>
       <c r="E69" s="2">
-        <f t="shared" ref="E69:E132" si="9">+E68-1</f>
+        <f t="shared" ref="E69:E132" si="21">+E68-1</f>
         <v>186</v>
       </c>
       <c r="F69" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>7.5660111754634359E-5</v>
       </c>
       <c r="G69" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>3.2454977620006072E-12</v>
       </c>
       <c r="H69" s="5"/>
@@ -6562,23 +7024,23 @@
         <v>195.10000600000001</v>
       </c>
       <c r="C70" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>1.0045220334174916E-2</v>
       </c>
       <c r="D70" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>1.009064515621212E-4</v>
       </c>
       <c r="E70" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>185</v>
       </c>
       <c r="F70" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>7.9642222899615128E-5</v>
       </c>
       <c r="G70" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>8.0364141073196745E-9</v>
       </c>
       <c r="H70" s="5"/>
@@ -6594,23 +7056,23 @@
         <v>197.39999399999999</v>
       </c>
       <c r="C71" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>1.1719818221719164E-2</v>
       </c>
       <c r="D71" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>1.3735413915014053E-4</v>
       </c>
       <c r="E71" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>184</v>
       </c>
       <c r="F71" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>8.3833918841700136E-5</v>
       </c>
       <c r="G71" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>1.1514935754084468E-8</v>
       </c>
       <c r="H71" s="5"/>
@@ -6626,23 +7088,23 @@
         <v>199.320007</v>
       </c>
       <c r="C72" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>9.6795119283652562E-3</v>
       </c>
       <c r="D72" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>9.3692951171365287E-5</v>
       </c>
       <c r="E72" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>183</v>
       </c>
       <c r="F72" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>8.8246230359684339E-5</v>
       </c>
       <c r="G72" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>8.2680497521469573E-9</v>
       </c>
       <c r="H72" s="5"/>
@@ -6658,23 +7120,23 @@
         <v>197.509995</v>
       </c>
       <c r="C73" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-9.1224178770170153E-3</v>
       </c>
       <c r="D73" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>8.3218507922919627E-5</v>
       </c>
       <c r="E73" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>182</v>
       </c>
       <c r="F73" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>9.2890768799667753E-5</v>
       </c>
       <c r="G73" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>7.730231179321247E-9</v>
       </c>
       <c r="H73" s="5"/>
@@ -6690,23 +7152,23 @@
         <v>197.929993</v>
       </c>
       <c r="C74" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>2.1242068110124417E-3</v>
       </c>
       <c r="D74" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>4.5122545759516475E-6</v>
       </c>
       <c r="E74" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>181</v>
       </c>
       <c r="F74" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>9.7779756631229188E-5</v>
       </c>
       <c r="G74" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>4.4120715429470234E-10</v>
       </c>
       <c r="H74" s="5"/>
@@ -6722,23 +7184,23 @@
         <v>198.820007</v>
       </c>
       <c r="C75" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>4.4865305251193784E-3</v>
       </c>
       <c r="D75" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>2.0128956152827965E-5</v>
       </c>
       <c r="E75" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>180</v>
       </c>
       <c r="F75" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>1.029260596118202E-4</v>
       </c>
       <c r="G75" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>2.0717941409096863E-9</v>
       </c>
       <c r="H75" s="5"/>
@@ -6754,23 +7216,23 @@
         <v>199.78999300000001</v>
       </c>
       <c r="C76" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>4.8668518833443726E-3</v>
       </c>
       <c r="D76" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>2.3686247254412667E-5</v>
       </c>
       <c r="E76" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>179</v>
       </c>
       <c r="F76" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>1.0834322064402127E-4</v>
       </c>
       <c r="G76" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>2.5662443125136745E-9</v>
       </c>
       <c r="H76" s="5"/>
@@ -6786,23 +7248,23 @@
         <v>198.970001</v>
       </c>
       <c r="C77" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-4.1127152580284791E-3</v>
       </c>
       <c r="D77" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>1.6914426793620259E-5</v>
       </c>
       <c r="E77" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>178</v>
       </c>
       <c r="F77" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>1.1404549541475923E-4</v>
       </c>
       <c r="G77" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>1.9290141833351002E-9</v>
       </c>
       <c r="H77" s="5"/>
@@ -6818,23 +7280,23 @@
         <v>202</v>
       </c>
       <c r="C78" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>1.5113632784165009E-2</v>
       </c>
       <c r="D78" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>2.2842189593458737E-4</v>
       </c>
       <c r="E78" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>177</v>
       </c>
       <c r="F78" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>1.2004788991027288E-4</v>
       </c>
       <c r="G78" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>2.7421566616251154E-8</v>
       </c>
       <c r="H78" s="5"/>
@@ -6850,23 +7312,23 @@
         <v>201.63999899999999</v>
       </c>
       <c r="C79" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-1.7837731461082219E-3</v>
       </c>
       <c r="D79" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>3.181846636776824E-6</v>
       </c>
       <c r="E79" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>176</v>
       </c>
       <c r="F79" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>1.2636619990555041E-4</v>
       </c>
       <c r="G79" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>4.0207786817174338E-10</v>
       </c>
       <c r="H79" s="5"/>
@@ -6882,23 +7344,23 @@
         <v>199.699997</v>
       </c>
       <c r="C80" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-9.6676988558609799E-3</v>
       </c>
       <c r="D80" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>9.3464401167615699E-5</v>
       </c>
       <c r="E80" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>175</v>
       </c>
       <c r="F80" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>1.3301705253215831E-4</v>
       </c>
       <c r="G80" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>1.2432359159999457E-8</v>
       </c>
       <c r="H80" s="5"/>
@@ -6914,23 +7376,23 @@
         <v>198.820007</v>
       </c>
       <c r="C81" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-4.4162974075115371E-3</v>
       </c>
       <c r="D81" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>1.9503682791593125E-5</v>
       </c>
       <c r="E81" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>174</v>
       </c>
       <c r="F81" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>1.4001795003385086E-4</v>
       </c>
       <c r="G81" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>2.7308656825893631E-9</v>
       </c>
       <c r="H81" s="5"/>
@@ -6946,23 +7408,23 @@
         <v>198.71000699999999</v>
       </c>
       <c r="C82" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-5.5341734678425252E-4</v>
       </c>
       <c r="D82" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>3.0627075972172163E-7</v>
       </c>
       <c r="E82" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>173</v>
       </c>
       <c r="F82" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>1.4738731582510616E-4</v>
       </c>
       <c r="G82" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>4.5140425191100589E-11</v>
       </c>
       <c r="H82" s="5"/>
@@ -6978,23 +7440,23 @@
         <v>199.36000100000001</v>
       </c>
       <c r="C83" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>3.2657299702000186E-3</v>
       </c>
       <c r="D83" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>1.0664992238262614E-5</v>
       </c>
       <c r="E83" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>172</v>
       </c>
       <c r="F83" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>1.5514454297379596E-4</v>
       </c>
       <c r="G83" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>1.6546153466243346E-9</v>
       </c>
       <c r="H83" s="5"/>
@@ -7010,23 +7472,23 @@
         <v>201.050003</v>
       </c>
       <c r="C84" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>8.4414076498043854E-3</v>
       </c>
       <c r="D84" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>7.1257363110176E-5</v>
       </c>
       <c r="E84" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>171</v>
       </c>
       <c r="F84" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>1.6331004523557473E-4</v>
       </c>
       <c r="G84" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>1.1637043192890617E-8</v>
       </c>
       <c r="H84" s="5"/>
@@ -7042,23 +7504,23 @@
         <v>201.33999600000001</v>
       </c>
       <c r="C85" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>1.4413531694410929E-3</v>
       </c>
       <c r="D85" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>2.0774989590578838E-6</v>
       </c>
       <c r="E85" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>170</v>
       </c>
       <c r="F85" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>1.7190531077428917E-4</v>
       </c>
       <c r="G85" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>3.5713310419010779E-10</v>
       </c>
       <c r="H85" s="5"/>
@@ -7074,23 +7536,23 @@
         <v>200.86999499999999</v>
       </c>
       <c r="C86" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-2.3370936796498487E-3</v>
       </c>
       <c r="D86" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>5.4620068674592697E-6</v>
       </c>
       <c r="E86" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>169</v>
       </c>
       <c r="F86" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>1.8095295870977811E-4</v>
       </c>
       <c r="G86" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>9.8836630315988167E-10</v>
       </c>
       <c r="H86" s="5"/>
@@ -7106,23 +7568,23 @@
         <v>202.259995</v>
       </c>
       <c r="C87" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>6.896065998631953E-3</v>
       </c>
       <c r="D87" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>4.7555726257487717E-5</v>
       </c>
       <c r="E87" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>168</v>
       </c>
       <c r="F87" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>1.9047679864187168E-4</v>
       </c>
       <c r="G87" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>9.058262494615458E-9</v>
       </c>
       <c r="H87" s="5"/>
@@ -7138,23 +7600,23 @@
         <v>196.75</v>
       </c>
       <c r="C88" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-2.7620086455854863E-2</v>
       </c>
       <c r="D88" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>7.6286917582889724E-4</v>
       </c>
       <c r="E88" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>167</v>
       </c>
       <c r="F88" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>2.0050189330723332E-4</v>
       </c>
       <c r="G88" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>1.5295671409942256E-7</v>
       </c>
       <c r="H88" s="5"/>
@@ -7170,23 +7632,23 @@
         <v>194.11000100000001</v>
       </c>
       <c r="C89" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-1.35088734627945E-2</v>
       </c>
       <c r="D89" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>1.8248966223379347E-4</v>
       </c>
       <c r="E89" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>166</v>
       </c>
       <c r="F89" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>2.1105462453392982E-4</v>
       </c>
       <c r="G89" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>3.8515287144076956E-8</v>
       </c>
       <c r="H89" s="5"/>
@@ -7202,23 +7664,23 @@
         <v>197.91999799999999</v>
       </c>
       <c r="C90" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>1.9437884704366488E-2</v>
       </c>
       <c r="D90" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>3.7783136178024467E-4</v>
       </c>
       <c r="E90" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>165</v>
       </c>
       <c r="F90" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>2.2216276266729456E-4</v>
       </c>
       <c r="G90" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>8.3940059155445208E-8</v>
       </c>
       <c r="H90" s="5"/>
@@ -7234,23 +7696,23 @@
         <v>198.38999899999999</v>
       </c>
       <c r="C91" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>2.371886775019337E-3</v>
       </c>
       <c r="D91" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>5.6258468735116313E-6</v>
       </c>
       <c r="E91" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>164</v>
       </c>
       <c r="F91" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>2.338555396497837E-4</v>
       </c>
       <c r="G91" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>1.3156354565921109E-9</v>
       </c>
       <c r="H91" s="5"/>
@@ -7266,23 +7728,23 @@
         <v>202.5</v>
       </c>
       <c r="C92" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>2.0505101232489952E-2</v>
       </c>
       <c r="D92" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>4.2045917655466095E-4</v>
       </c>
       <c r="E92" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>163</v>
       </c>
       <c r="F92" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>2.4616372594714081E-4</v>
       </c>
       <c r="G92" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>1.0350179750936206E-7</v>
       </c>
       <c r="H92" s="5"/>
@@ -7298,23 +7760,23 @@
         <v>206.05999800000001</v>
       </c>
       <c r="C93" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>1.7427492264417199E-2</v>
       </c>
       <c r="D93" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>3.0371748662632133E-4</v>
       </c>
       <c r="E93" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>162</v>
       </c>
       <c r="F93" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>2.5911971152330608E-4</v>
       </c>
       <c r="G93" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>7.8699187519195951E-8</v>
       </c>
       <c r="H93" s="5"/>
@@ -7330,23 +7792,23 @@
         <v>206.300003</v>
       </c>
       <c r="C94" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>1.1640558081241906E-3</v>
       </c>
       <c r="D94" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>1.3550259244276625E-6</v>
       </c>
       <c r="E94" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>161</v>
       </c>
       <c r="F94" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>2.7275759107716431E-4</v>
       </c>
       <c r="G94" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>3.6959360699399693E-10</v>
       </c>
       <c r="H94" s="5"/>
@@ -7362,23 +7824,23 @@
         <v>206.179993</v>
       </c>
       <c r="C95" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-5.8189490181392823E-4</v>
       </c>
       <c r="D95" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>3.3860167675704117E-7</v>
       </c>
       <c r="E95" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>160</v>
       </c>
       <c r="F95" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>2.871132537654361E-4</v>
       </c>
       <c r="G95" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>9.7217029144146522E-11</v>
       </c>
       <c r="H95" s="5"/>
@@ -7394,23 +7856,23 @@
         <v>205.11999499999999</v>
       </c>
       <c r="C96" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-5.1543903609915691E-3</v>
       </c>
       <c r="D96" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>2.6567739993482799E-5</v>
       </c>
       <c r="E96" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>159</v>
       </c>
       <c r="F96" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>3.0222447764782746E-4</v>
       </c>
       <c r="G96" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>8.0294213418136331E-9</v>
       </c>
       <c r="H96" s="5"/>
@@ -7426,23 +7888,23 @@
         <v>207.78999300000001</v>
       </c>
       <c r="C97" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>1.2932771267600488E-2</v>
       </c>
       <c r="D97" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>1.6725657266007272E-4</v>
       </c>
       <c r="E97" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>158</v>
       </c>
       <c r="F97" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>3.181310291029763E-4</v>
       </c>
       <c r="G97" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>5.3209505584585667E-8</v>
       </c>
       <c r="H97" s="5"/>
@@ -7458,23 +7920,23 @@
         <v>208.10000600000001</v>
       </c>
       <c r="C98" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>1.4908416079502361E-3</v>
       </c>
       <c r="D98" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>2.2226086999956453E-6</v>
       </c>
       <c r="E98" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>157</v>
       </c>
       <c r="F98" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>3.348747674768171E-4</v>
       </c>
       <c r="G98" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>7.442955716029925E-10</v>
       </c>
       <c r="H98" s="5"/>
@@ -7490,23 +7952,23 @@
         <v>204.41000399999999</v>
       </c>
       <c r="C99" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-1.7890961851480678E-2</v>
       </c>
       <c r="D99" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>3.2008651597113694E-4</v>
       </c>
       <c r="E99" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>156</v>
       </c>
       <c r="F99" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>3.5249975523875493E-4</v>
       </c>
       <c r="G99" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>1.1283041853505159E-7</v>
       </c>
       <c r="H99" s="5"/>
@@ -7522,23 +7984,23 @@
         <v>205.25</v>
       </c>
       <c r="C100" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>4.1009479521376575E-3</v>
       </c>
       <c r="D100" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>1.6817774106142047E-5</v>
       </c>
       <c r="E100" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>155</v>
       </c>
       <c r="F100" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>3.7105237393553149E-4</v>
       </c>
       <c r="G100" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>6.2402750063955172E-9</v>
       </c>
       <c r="H100" s="5"/>
@@ -7554,23 +8016,23 @@
         <v>209.779999</v>
       </c>
       <c r="C101" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>2.1830609434021528E-2</v>
       </c>
       <c r="D101" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>4.7657550826078971E-4</v>
       </c>
       <c r="E101" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>154</v>
       </c>
       <c r="F101" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>3.9058144624792786E-4</v>
       </c>
       <c r="G101" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>1.8614155126284053E-7</v>
       </c>
       <c r="H101" s="5"/>
@@ -7586,23 +8048,23 @@
         <v>208.66999799999999</v>
       </c>
       <c r="C102" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-5.3053106057773117E-3</v>
       </c>
       <c r="D102" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>2.8146320623773226E-5</v>
       </c>
       <c r="E102" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>153</v>
       </c>
       <c r="F102" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>4.1113836447150307E-4</v>
       </c>
       <c r="G102" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>1.157203222714866E-8</v>
       </c>
       <c r="H102" s="5"/>
@@ -7618,23 +8080,23 @@
         <v>212.60000600000001</v>
       </c>
       <c r="C103" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>1.8658446969078493E-2</v>
       </c>
       <c r="D103" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>3.4813764329791439E-4</v>
       </c>
       <c r="E103" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>152</v>
       </c>
       <c r="F103" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>4.3277722575947689E-4</v>
       </c>
       <c r="G103" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>1.5066604344891373E-7</v>
       </c>
       <c r="H103" s="5"/>
@@ -7650,23 +8112,23 @@
         <v>213.05999800000001</v>
       </c>
       <c r="C104" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>2.161312666163968E-3</v>
       </c>
       <c r="D104" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>4.6712724409207998E-6</v>
       </c>
       <c r="E104" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>151</v>
       </c>
       <c r="F104" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>4.5555497448365983E-4</v>
       </c>
       <c r="G104" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>2.1280213976298983E-9</v>
       </c>
       <c r="H104" s="5"/>
@@ -7682,23 +8144,23 @@
         <v>215.220001</v>
       </c>
       <c r="C105" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>1.0086958622630031E-2</v>
       </c>
       <c r="D105" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>1.0174673425465032E-4</v>
       </c>
       <c r="E105" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>150</v>
       </c>
       <c r="F105" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>4.7953155208806309E-4</v>
       </c>
       <c r="G105" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>4.8790769397024167E-8</v>
       </c>
       <c r="H105" s="5"/>
@@ -7714,23 +8176,23 @@
         <v>218.300003</v>
       </c>
       <c r="C106" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>1.4209511879799644E-2</v>
       </c>
       <c r="D106" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>2.019102278621672E-4</v>
       </c>
       <c r="E106" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>149</v>
       </c>
       <c r="F106" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>5.0477005482953998E-4</v>
       </c>
       <c r="G106" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>1.0191823678863105E-7</v>
       </c>
       <c r="H106" s="5"/>
@@ -7746,23 +8208,23 @@
         <v>218.05999800000001</v>
       </c>
       <c r="C107" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-1.1000321920061101E-3</v>
       </c>
       <c r="D107" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>1.2100708234497675E-6</v>
       </c>
       <c r="E107" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>148</v>
       </c>
       <c r="F107" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>5.3133689982056841E-4</v>
       </c>
       <c r="G107" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>6.4295527989512186E-10</v>
       </c>
       <c r="H107" s="5"/>
@@ -7778,23 +8240,23 @@
         <v>221.91000399999999</v>
       </c>
       <c r="C108" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>1.7501667186763239E-2</v>
       </c>
       <c r="D108" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>3.0630835431622505E-4</v>
       </c>
       <c r="E108" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>147</v>
       </c>
       <c r="F108" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>5.5930199981112474E-4</v>
       </c>
       <c r="G108" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>1.7131887512791923E-7</v>
       </c>
       <c r="H108" s="5"/>
@@ -7810,23 +8272,23 @@
         <v>219.05999800000001</v>
       </c>
       <c r="C109" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-1.2926256527529639E-2</v>
       </c>
       <c r="D109" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>1.6708810781550259E-4</v>
       </c>
       <c r="E109" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>146</v>
       </c>
       <c r="F109" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>5.887389471696049E-4</v>
       </c>
       <c r="G109" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>9.837127667986043E-8</v>
       </c>
       <c r="H109" s="5"/>
@@ -7842,23 +8304,23 @@
         <v>221.14999399999999</v>
       </c>
       <c r="C110" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>9.4955214177470781E-3</v>
       </c>
       <c r="D110" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>9.0164926994893484E-5</v>
       </c>
       <c r="E110" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>145</v>
       </c>
       <c r="F110" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>6.1972520754695261E-4</v>
       </c>
       <c r="G110" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>5.5877478095366194E-8</v>
       </c>
       <c r="H110" s="5"/>
@@ -7874,23 +8336,23 @@
         <v>221.770004</v>
       </c>
       <c r="C111" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>2.7996496332134912E-3</v>
       </c>
       <c r="D111" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>7.8380380687524352E-6</v>
       </c>
       <c r="E111" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>144</v>
       </c>
       <c r="F111" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>6.5234232373363428E-4</v>
       </c>
       <c r="G111" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>5.1130839672826505E-9</v>
       </c>
       <c r="H111" s="5"/>
@@ -7906,23 +8368,23 @@
         <v>222.13999899999999</v>
       </c>
       <c r="C112" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>1.6669824206661157E-3</v>
       </c>
       <c r="D112" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>2.7788303908098625E-6</v>
       </c>
       <c r="E112" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>143</v>
       </c>
       <c r="F112" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>6.8667613024593079E-4</v>
       </c>
       <c r="G112" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>1.908156499371104E-9</v>
       </c>
       <c r="H112" s="5"/>
@@ -7938,23 +8400,23 @@
         <v>221.44000199999999</v>
       </c>
       <c r="C113" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-3.1561277762116903E-3</v>
       </c>
       <c r="D113" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>9.9611425397749492E-6</v>
       </c>
       <c r="E113" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>142</v>
       </c>
       <c r="F113" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>7.2281697920624293E-4</v>
       </c>
       <c r="G113" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>7.2000829600429313E-9</v>
       </c>
       <c r="H113" s="5"/>
@@ -7970,23 +8432,23 @@
         <v>221.320007</v>
       </c>
       <c r="C114" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-5.4203180277675089E-4</v>
       </c>
       <c r="D114" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>2.937984752214146E-7</v>
       </c>
       <c r="E114" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>141</v>
       </c>
       <c r="F114" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>7.608599781118347E-4</v>
       </c>
       <c r="G114" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>2.2353950142625592E-10</v>
       </c>
       <c r="H114" s="5"/>
@@ -8002,23 +8464,23 @@
         <v>219.759995</v>
       </c>
       <c r="C115" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-7.073630623394926E-3</v>
       </c>
       <c r="D115" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>5.0036250196230487E-5</v>
       </c>
       <c r="E115" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>140</v>
       </c>
       <c r="F115" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>8.0090524011772082E-4</v>
       </c>
       <c r="G115" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>4.0074294978002333E-8</v>
       </c>
       <c r="H115" s="5"/>
@@ -8034,23 +8496,23 @@
         <v>217.94000199999999</v>
       </c>
       <c r="C116" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-8.3162143093473868E-3</v>
       </c>
       <c r="D116" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>6.9159420438994241E-5</v>
       </c>
       <c r="E116" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>139</v>
       </c>
       <c r="F116" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>8.4305814749233772E-4</v>
       </c>
       <c r="G116" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>5.8305412876942201E-8</v>
       </c>
       <c r="H116" s="5"/>
@@ -8066,23 +8528,23 @@
         <v>214.86999499999999</v>
       </c>
       <c r="C117" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-1.4186633905825209E-2</v>
       </c>
       <c r="D117" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>2.0126058157790943E-4</v>
       </c>
       <c r="E117" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>138</v>
       </c>
       <c r="F117" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>8.8742962893930278E-4</v>
       </c>
       <c r="G117" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>1.7860460322979243E-7</v>
       </c>
       <c r="H117" s="5"/>
@@ -8098,23 +8560,23 @@
         <v>217.78999300000001</v>
       </c>
       <c r="C118" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>1.3498092801711124E-2</v>
       </c>
       <c r="D118" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>1.8219850928360566E-4</v>
       </c>
       <c r="E118" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>137</v>
       </c>
       <c r="F118" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>9.3413645151505561E-4</v>
       </c>
       <c r="G118" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>1.7019826893352032E-7</v>
       </c>
       <c r="H118" s="5"/>
@@ -8130,23 +8592,23 @@
         <v>223.229996</v>
       </c>
       <c r="C119" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>2.4671348537077167E-2</v>
       </c>
       <c r="D119" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>6.086754386379397E-4</v>
       </c>
       <c r="E119" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>136</v>
       </c>
       <c r="F119" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>9.8330152791058483E-4</v>
       </c>
       <c r="G119" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>5.9851148881433157E-7</v>
       </c>
       <c r="H119" s="5"/>
@@ -8162,23 +8624,23 @@
         <v>209.529999</v>
       </c>
       <c r="C120" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-6.3335689730110445E-2</v>
       </c>
       <c r="D120" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>4.0114095935888175E-3</v>
       </c>
       <c r="E120" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>135</v>
       </c>
       <c r="F120" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>1.0350542399058787E-3</v>
       </c>
       <c r="G120" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>4.1520265078432229E-6</v>
       </c>
       <c r="H120" s="5"/>
@@ -8194,23 +8656,23 @@
         <v>201.91000399999999</v>
       </c>
       <c r="C121" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-3.7044849055341042E-2</v>
       </c>
       <c r="D121" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>1.3723208415330021E-3</v>
       </c>
       <c r="E121" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>134</v>
       </c>
       <c r="F121" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>1.0895307788482936E-3</v>
       </c>
       <c r="G121" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>1.4951857953051975E-6</v>
       </c>
       <c r="H121" s="5"/>
@@ -8226,23 +8688,23 @@
         <v>204.19000199999999</v>
       </c>
       <c r="C122" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>1.1228869356653022E-2</v>
       </c>
       <c r="D122" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>1.2608750702878125E-4</v>
       </c>
       <c r="E122" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>133</v>
       </c>
       <c r="F122" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>1.1468745040508353E-3</v>
       </c>
       <c r="G122" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>1.4460654709063972E-7</v>
       </c>
       <c r="H122" s="5"/>
@@ -8258,23 +8720,23 @@
         <v>209.83000200000001</v>
       </c>
       <c r="C123" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>2.7246745868386792E-2</v>
       </c>
       <c r="D123" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>7.4238516041645272E-4</v>
       </c>
       <c r="E123" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>132</v>
       </c>
       <c r="F123" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>1.2072363200535108E-3</v>
       </c>
       <c r="G123" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>8.962343291234937E-7</v>
       </c>
       <c r="H123" s="5"/>
@@ -8290,23 +8752,23 @@
         <v>210.11000100000001</v>
       </c>
       <c r="C124" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>1.3335192622405123E-3</v>
       </c>
       <c r="D124" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>1.7782736227664803E-6</v>
       </c>
       <c r="E124" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>131</v>
       </c>
       <c r="F124" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>1.2707750737405378E-3</v>
       </c>
       <c r="G124" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>2.2597857941019272E-9</v>
       </c>
       <c r="H124" s="5"/>
@@ -8322,23 +8784,23 @@
         <v>210.85000600000001</v>
       </c>
       <c r="C125" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>3.5158007884474062E-3</v>
       </c>
       <c r="D125" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>1.2360855184047404E-5</v>
       </c>
       <c r="E125" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>130</v>
       </c>
       <c r="F125" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>1.3376579723584608E-3</v>
       </c>
       <c r="G125" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>1.6534596482109418E-8</v>
       </c>
       <c r="H125" s="5"/>
@@ -8354,23 +8816,23 @@
         <v>212.33000200000001</v>
       </c>
       <c r="C126" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>6.9946689641856054E-3</v>
       </c>
       <c r="D126" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>4.892539391854133E-5</v>
       </c>
       <c r="E126" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>129</v>
       </c>
       <c r="F126" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>1.4080610235352219E-3</v>
       </c>
       <c r="G126" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>6.8889940237805225E-8</v>
       </c>
       <c r="H126" s="5"/>
@@ -8386,23 +8848,23 @@
         <v>213.05999800000001</v>
       </c>
       <c r="C127" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>3.4321291830219291E-3</v>
       </c>
       <c r="D127" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>1.1779510728950775E-5</v>
       </c>
       <c r="E127" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>128</v>
       </c>
       <c r="F127" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>1.4821694984581285E-3</v>
       </c>
       <c r="G127" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>1.7459231509211113E-8</v>
       </c>
       <c r="H127" s="5"/>
@@ -8418,23 +8880,23 @@
         <v>207.19000199999999</v>
       </c>
       <c r="C128" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-2.7937550470657727E-2</v>
       </c>
       <c r="D128" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>7.8050672630054774E-4</v>
       </c>
       <c r="E128" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>127</v>
       </c>
       <c r="F128" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>1.5601784194296088E-3</v>
       </c>
       <c r="G128" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>1.2177297505937668E-6</v>
       </c>
       <c r="H128" s="5"/>
@@ -8450,23 +8912,23 @@
         <v>210.759995</v>
       </c>
       <c r="C129" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>1.7083765292051446E-2</v>
       </c>
       <c r="D129" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>2.9185503655390166E-4</v>
       </c>
       <c r="E129" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>126</v>
       </c>
       <c r="F129" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>1.6422930730837987E-3</v>
       </c>
       <c r="G129" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>4.7931150487709152E-7</v>
       </c>
       <c r="H129" s="5"/>
@@ -8482,23 +8944,23 @@
         <v>213.13999899999999</v>
       </c>
       <c r="C130" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>1.1229200483640176E-2</v>
       </c>
       <c r="D130" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>1.2609494350178477E-4</v>
       </c>
       <c r="E130" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>125</v>
       </c>
       <c r="F130" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>1.7287295506145249E-3</v>
       </c>
       <c r="G130" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>2.1798405501460429E-7</v>
       </c>
       <c r="H130" s="5"/>
@@ -8514,23 +8976,23 @@
         <v>214.179993</v>
       </c>
       <c r="C131" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>4.8675281888800638E-3</v>
       </c>
       <c r="D131" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>2.3692830669542035E-5</v>
       </c>
       <c r="E131" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>124</v>
       </c>
       <c r="F131" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>1.8197153164363424E-3</v>
       </c>
       <c r="G131" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>4.311420685909836E-8</v>
       </c>
       <c r="H131" s="5"/>
@@ -8546,23 +9008,23 @@
         <v>217.800003</v>
       </c>
       <c r="C132" s="5">
-        <f t="shared" ref="C132:C195" si="10">+LN(B132/B131)</f>
+        <f t="shared" ref="C132:C195" si="22">+LN(B132/B131)</f>
         <v>1.6760473983026478E-2</v>
       </c>
       <c r="D132" s="5">
-        <f t="shared" ref="D132:D195" si="11">+C132^2</f>
+        <f t="shared" ref="D132:D195" si="23">+C132^2</f>
         <v>2.8091348813570746E-4</v>
       </c>
       <c r="E132" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>123</v>
       </c>
       <c r="F132" s="8">
-        <f t="shared" ref="F132:F195" si="12">+$J$9^(E132-1)</f>
+        <f t="shared" ref="F132:F195" si="24">+$J$9^(E132-1)</f>
         <v>1.9154898067750973E-3</v>
       </c>
       <c r="G132" s="5">
-        <f t="shared" ref="G132:G195" si="13">+F132*D132</f>
+        <f t="shared" ref="G132:G195" si="25">+F132*D132</f>
         <v>5.3808692310958487E-7</v>
       </c>
       <c r="H132" s="5"/>
@@ -8578,23 +9040,23 @@
         <v>217.490005</v>
       </c>
       <c r="C133" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>-1.4243288231328755E-3</v>
       </c>
       <c r="D133" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>2.0287125964070825E-6</v>
       </c>
       <c r="E133" s="2">
-        <f t="shared" ref="E133:E196" si="14">+E132-1</f>
+        <f t="shared" ref="E133:E196" si="26">+E132-1</f>
         <v>122</v>
       </c>
       <c r="F133" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>2.0163050597632598E-3</v>
       </c>
       <c r="G133" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>4.0905034729410599E-9</v>
       </c>
       <c r="H133" s="5"/>
@@ -8610,23 +9072,23 @@
         <v>214.58000200000001</v>
       </c>
       <c r="C134" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>-1.3470256920698516E-2</v>
       </c>
       <c r="D134" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>1.8144782150962625E-4</v>
       </c>
       <c r="E134" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>121</v>
       </c>
       <c r="F134" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>2.1224263786981689E-3</v>
       </c>
       <c r="G134" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>3.8510964272934774E-7</v>
       </c>
       <c r="H134" s="5"/>
@@ -8642,23 +9104,23 @@
         <v>210.179993</v>
       </c>
       <c r="C135" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>-2.0718365396469773E-2</v>
       </c>
       <c r="D135" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>4.2925066470163607E-4</v>
       </c>
       <c r="E135" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>120</v>
       </c>
       <c r="F135" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>2.2341330302085988E-3</v>
       </c>
       <c r="G135" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>9.5900308824892141E-7</v>
       </c>
       <c r="H135" s="5"/>
@@ -8674,23 +9136,23 @@
         <v>200.720001</v>
       </c>
       <c r="C136" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>-4.6053366092432074E-2</v>
       </c>
       <c r="D136" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>2.1209125284435723E-3</v>
       </c>
       <c r="E136" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>119</v>
       </c>
       <c r="F136" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>2.3517189791669455E-3</v>
       </c>
       <c r="G136" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>4.9877902462937031E-6</v>
       </c>
       <c r="H136" s="5"/>
@@ -8706,23 +9168,23 @@
         <v>196.770004</v>
       </c>
       <c r="C137" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>-1.9875352738175658E-2</v>
       </c>
       <c r="D137" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>3.9502964646690662E-4</v>
       </c>
       <c r="E137" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>118</v>
       </c>
       <c r="F137" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>2.4754936622809957E-3</v>
       </c>
       <c r="G137" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>9.7789338624192969E-7</v>
       </c>
       <c r="H137" s="5"/>
@@ -8738,23 +9200,23 @@
         <v>197.199997</v>
       </c>
       <c r="C138" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>2.1828726534974256E-3</v>
       </c>
       <c r="D138" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>4.7649330213868918E-6</v>
       </c>
       <c r="E138" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>117</v>
       </c>
       <c r="F138" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>2.605782802401048E-3</v>
       </c>
       <c r="G138" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>1.2416380521722827E-8</v>
       </c>
       <c r="H138" s="5"/>
@@ -8770,23 +9232,23 @@
         <v>189.75</v>
       </c>
       <c r="C139" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>-3.8511010679813905E-2</v>
       </c>
       <c r="D139" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>1.4830979435807407E-3</v>
       </c>
       <c r="E139" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>116</v>
       </c>
       <c r="F139" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>2.7429292656853134E-3</v>
       </c>
       <c r="G139" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>4.0680327533253195E-6</v>
       </c>
       <c r="H139" s="5"/>
@@ -8802,23 +9264,23 @@
         <v>192.470001</v>
       </c>
       <c r="C140" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>1.4232886346907945E-2</v>
       </c>
       <c r="D140" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>2.025750537639986E-4</v>
       </c>
       <c r="E140" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>115</v>
       </c>
       <c r="F140" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>2.8872939638792776E-3</v>
       </c>
       <c r="G140" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>5.8489372996531328E-7</v>
       </c>
       <c r="H140" s="5"/>
@@ -8834,23 +9296,23 @@
         <v>196.44000199999999</v>
       </c>
       <c r="C141" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>2.0416748729622316E-2</v>
       </c>
       <c r="D141" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>4.1684362868853447E-4</v>
       </c>
       <c r="E141" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>114</v>
       </c>
       <c r="F141" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>3.0392568040834502E-3</v>
       </c>
       <c r="G141" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>1.2668948347304636E-6</v>
       </c>
       <c r="H141" s="5"/>
@@ -8866,23 +9328,23 @@
         <v>185.88999899999999</v>
       </c>
       <c r="C142" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>-5.5201955812742474E-2</v>
       </c>
       <c r="D142" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>3.0472559255519728E-3</v>
       </c>
       <c r="E142" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>113</v>
       </c>
       <c r="F142" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>3.1992176885088947E-3</v>
       </c>
       <c r="G142" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>9.7488350584394149E-6</v>
       </c>
       <c r="H142" s="5"/>
@@ -8898,23 +9360,23 @@
         <v>191.759995</v>
       </c>
       <c r="C143" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>3.1089468512341956E-2</v>
       </c>
       <c r="D143" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>9.6655505237990197E-4</v>
       </c>
       <c r="E143" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>112</v>
       </c>
       <c r="F143" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>3.3675975668514685E-3</v>
       </c>
       <c r="G143" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>3.2549684426225517E-6</v>
       </c>
       <c r="H143" s="5"/>
@@ -8930,23 +9392,23 @@
         <v>185.16999799999999</v>
       </c>
       <c r="C144" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>-3.4970252803030295E-2</v>
       </c>
       <c r="D144" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>1.2229185811078482E-3</v>
       </c>
       <c r="E144" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>111</v>
       </c>
       <c r="F144" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>3.5448395440541773E-3</v>
       </c>
       <c r="G144" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>4.3350501454697256E-6</v>
       </c>
       <c r="H144" s="5"/>
@@ -8962,23 +9424,23 @@
         <v>181.08999600000001</v>
       </c>
       <c r="C145" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>-2.2280188084052206E-2</v>
       </c>
       <c r="D145" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>4.9640678106074193E-4</v>
       </c>
       <c r="E145" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>110</v>
       </c>
       <c r="F145" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>3.731410046372818E-3</v>
       </c>
       <c r="G145" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>1.8522972499376444E-6</v>
       </c>
       <c r="H145" s="5"/>
@@ -8994,23 +9456,23 @@
         <v>169.5</v>
       </c>
       <c r="C146" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>-6.6141196344281658E-2</v>
       </c>
       <c r="D146" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>4.3746578538528171E-3</v>
       </c>
       <c r="E146" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>109</v>
       </c>
       <c r="F146" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>3.9278000488134927E-3</v>
       </c>
       <c r="G146" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>1.7182781331905424E-5</v>
       </c>
       <c r="H146" s="5"/>
@@ -9026,23 +9488,23 @@
         <v>178.19000199999999</v>
       </c>
       <c r="C147" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>4.9997481142792781E-2</v>
       </c>
       <c r="D147" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>2.4997481206239197E-3</v>
       </c>
       <c r="E147" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>108</v>
       </c>
       <c r="F147" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>4.1345263671720978E-3</v>
       </c>
       <c r="G147" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>1.0335274516008493E-5</v>
       </c>
       <c r="H147" s="5"/>
@@ -9058,23 +9520,23 @@
         <v>170.240005</v>
       </c>
       <c r="C148" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>-4.5641172439717846E-2</v>
       </c>
       <c r="D148" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>2.0831166216720601E-3</v>
       </c>
       <c r="E148" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>107</v>
       </c>
       <c r="F148" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>4.3521330180758934E-3</v>
       </c>
       <c r="G148" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>9.0660006296816817E-6</v>
       </c>
       <c r="H148" s="5"/>
@@ -9090,23 +9552,23 @@
         <v>154.470001</v>
       </c>
       <c r="C149" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>-9.7209326323671269E-2</v>
       </c>
       <c r="D149" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>9.4496531243020085E-3</v>
       </c>
       <c r="E149" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>106</v>
       </c>
       <c r="F149" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>4.5811926506062021E-3</v>
       </c>
       <c r="G149" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>4.3290681443830299E-5</v>
       </c>
       <c r="H149" s="5"/>
@@ -9122,23 +9584,23 @@
         <v>170.279999</v>
       </c>
       <c r="C150" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>9.7444225887362734E-2</v>
       </c>
       <c r="D150" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>9.4953771587873732E-3</v>
       </c>
       <c r="E150" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>105</v>
       </c>
       <c r="F150" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>4.8223080532696872E-3</v>
       </c>
       <c r="G150" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>4.5789633741653392E-5</v>
       </c>
       <c r="H150" s="5"/>
@@ -9154,23 +9616,23 @@
         <v>146.009995</v>
       </c>
       <c r="C151" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>-0.15376905681802916</v>
       </c>
       <c r="D151" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>2.3644922834706279E-2</v>
       </c>
       <c r="E151" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>104</v>
       </c>
       <c r="F151" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>5.0761137402838812E-3</v>
       </c>
       <c r="G151" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>1.2002431768920464E-4</v>
       </c>
       <c r="H151" s="5"/>
@@ -9186,23 +9648,23 @@
         <v>149.41999799999999</v>
       </c>
       <c r="C152" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>2.3086040893323782E-2</v>
       </c>
       <c r="D152" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>5.3296528412821796E-4</v>
       </c>
       <c r="E152" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>103</v>
       </c>
       <c r="F152" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>5.3432776213514534E-3</v>
       </c>
       <c r="G152" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>2.8477814756395259E-6</v>
       </c>
       <c r="H152" s="5"/>
@@ -9218,23 +9680,23 @@
         <v>146.96000699999999</v>
       </c>
       <c r="C153" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>-1.6600630623688318E-2</v>
       </c>
       <c r="D153" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>2.7558093710413842E-4</v>
       </c>
       <c r="E153" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>102</v>
       </c>
       <c r="F153" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>5.6245027593173199E-3</v>
       </c>
       <c r="G153" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>1.5500057411574793E-6</v>
       </c>
       <c r="H153" s="5"/>
@@ -9250,23 +9712,23 @@
         <v>153.13000500000001</v>
       </c>
       <c r="C154" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>4.1126777940233235E-2</v>
       </c>
       <c r="D154" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>1.6914118637452551E-3</v>
       </c>
       <c r="E154" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>101</v>
       </c>
       <c r="F154" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>5.9205292203340209E-3</v>
       </c>
       <c r="G154" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>1.0014053362923409E-5</v>
       </c>
       <c r="H154" s="5"/>
@@ -9282,23 +9744,23 @@
         <v>149.729996</v>
       </c>
       <c r="C155" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>-2.2453621044236899E-2</v>
       </c>
       <c r="D155" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>5.0416509799819809E-4</v>
       </c>
       <c r="E155" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>100</v>
       </c>
       <c r="F155" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>6.2321360214042318E-3</v>
       </c>
       <c r="G155" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>3.1420254679693647E-6</v>
       </c>
       <c r="H155" s="5"/>
@@ -9314,23 +9776,23 @@
         <v>148.10000600000001</v>
       </c>
       <c r="C156" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>-1.0945883647954851E-2</v>
       </c>
       <c r="D156" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>1.198123688345654E-4</v>
       </c>
       <c r="E156" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>99</v>
       </c>
       <c r="F156" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>6.5601431804255088E-3</v>
       </c>
       <c r="G156" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>7.8598629434069996E-7</v>
       </c>
       <c r="H156" s="5"/>
@@ -9346,23 +9808,23 @@
         <v>160.979996</v>
       </c>
       <c r="C157" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>8.3392347030861222E-2</v>
       </c>
       <c r="D157" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>6.9542835433155882E-3</v>
       </c>
       <c r="E157" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>98</v>
       </c>
       <c r="F157" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>6.9054138741321139E-3</v>
       </c>
       <c r="G157" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>4.8022206064660102E-5</v>
       </c>
       <c r="H157" s="5"/>
@@ -9378,23 +9840,23 @@
         <v>156.21000699999999</v>
       </c>
       <c r="C158" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>-3.0078808163392163E-2</v>
       </c>
       <c r="D158" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>9.0473470053014705E-4</v>
       </c>
       <c r="E158" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>97</v>
       </c>
       <c r="F158" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>7.268856709612752E-3</v>
       </c>
       <c r="G158" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>6.5763868983680434E-6</v>
       </c>
       <c r="H158" s="5"/>
@@ -9410,23 +9872,23 @@
         <v>163.33999600000001</v>
       </c>
       <c r="C159" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>4.4632592786944945E-2</v>
       </c>
       <c r="D159" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>1.9920683388852498E-3</v>
       </c>
       <c r="E159" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>96</v>
       </c>
       <c r="F159" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>7.6514281153818439E-3</v>
       </c>
       <c r="G159" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>1.5242167695908608E-5</v>
       </c>
       <c r="H159" s="5"/>
@@ -9442,23 +9904,23 @@
         <v>156.78999300000001</v>
       </c>
       <c r="C160" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>-4.0926607714679382E-2</v>
       </c>
       <c r="D160" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>1.6749872190312538E-3</v>
       </c>
       <c r="E160" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>95</v>
       </c>
       <c r="F160" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>8.054134858296676E-3</v>
       </c>
       <c r="G160" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>1.3490572948001031E-5</v>
       </c>
       <c r="H160" s="5"/>
@@ -9474,23 +9936,23 @@
         <v>165.949997</v>
       </c>
       <c r="C161" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>5.6779234361595425E-2</v>
       </c>
       <c r="D161" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>3.2238814546889788E-3</v>
       </c>
       <c r="E161" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>94</v>
       </c>
       <c r="F161" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>8.4780366929438702E-3</v>
       </c>
       <c r="G161" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>2.7332185266554422E-5</v>
       </c>
       <c r="H161" s="5"/>
@@ -9506,23 +9968,23 @@
         <v>166.800003</v>
       </c>
       <c r="C162" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>5.1089878220085122E-3</v>
       </c>
       <c r="D162" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>2.6101756565431282E-5</v>
       </c>
       <c r="E162" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>93</v>
       </c>
       <c r="F162" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>8.9242491504672328E-3</v>
       </c>
       <c r="G162" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>2.3293857885475264E-7</v>
       </c>
       <c r="H162" s="5"/>
@@ -9538,23 +10000,23 @@
         <v>159.60000600000001</v>
       </c>
       <c r="C163" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>-4.4124785300565003E-2</v>
       </c>
       <c r="D163" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>1.9469966778209574E-3</v>
       </c>
       <c r="E163" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>92</v>
       </c>
       <c r="F163" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>9.3939464741760355E-3</v>
       </c>
       <c r="G163" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>1.8289982576848638E-5</v>
       </c>
       <c r="H163" s="5"/>
@@ -9570,23 +10032,23 @@
         <v>158.19000199999999</v>
       </c>
       <c r="C164" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>-8.8738677561805267E-3</v>
       </c>
       <c r="D164" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>7.8745528954180416E-5</v>
       </c>
       <c r="E164" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>91</v>
       </c>
       <c r="F164" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>9.8883647096589845E-3</v>
       </c>
       <c r="G164" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>7.7866450955394743E-7</v>
       </c>
       <c r="H164" s="5"/>
@@ -9602,23 +10064,23 @@
         <v>154.179993</v>
       </c>
       <c r="C165" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>-2.5676149223875924E-2</v>
       </c>
       <c r="D165" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>6.5926463896674422E-4</v>
       </c>
       <c r="E165" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>90</v>
       </c>
       <c r="F165" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>1.0408804957535772E-2</v>
       </c>
       <c r="G165" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>6.8621570424050782E-6</v>
       </c>
       <c r="H165" s="5"/>
@@ -9634,23 +10096,23 @@
         <v>165.550003</v>
       </c>
       <c r="C166" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>7.1152576485032287E-2</v>
       </c>
       <c r="D166" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>5.0626891404583693E-3</v>
       </c>
       <c r="E166" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>89</v>
       </c>
       <c r="F166" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>1.0956636797406077E-2</v>
       </c>
       <c r="G166" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>5.5470046130174315E-5</v>
       </c>
       <c r="H166" s="5"/>
@@ -9666,23 +10128,23 @@
         <v>168.83000200000001</v>
       </c>
       <c r="C167" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>1.9619021220669466E-2</v>
       </c>
       <c r="D167" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>3.8490599365707882E-4</v>
       </c>
       <c r="E167" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>88</v>
       </c>
       <c r="F167" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>1.1533301892006397E-2</v>
       </c>
       <c r="G167" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>4.4392370248897897E-6</v>
       </c>
       <c r="H167" s="5"/>
@@ -9698,23 +10160,23 @@
         <v>174.279999</v>
       </c>
       <c r="C168" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>3.1770892176010132E-2</v>
       </c>
       <c r="D168" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>1.0093895896596619E-3</v>
       </c>
       <c r="E168" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>87</v>
       </c>
       <c r="F168" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>1.2140317781059364E-2</v>
       </c>
       <c r="G168" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>1.2254310383361409E-5</v>
       </c>
       <c r="H168" s="5"/>
@@ -9730,23 +10192,23 @@
         <v>175.19000199999999</v>
       </c>
       <c r="C169" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>5.2079151525589278E-3</v>
       </c>
       <c r="D169" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>2.712238023625288E-5</v>
       </c>
       <c r="E169" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>86</v>
       </c>
       <c r="F169" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>1.2779281874799332E-2</v>
       </c>
       <c r="G169" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>3.4660454215456202E-7</v>
       </c>
       <c r="H169" s="5"/>
@@ -9762,23 +10224,23 @@
         <v>174.78999300000001</v>
       </c>
       <c r="C170" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>-2.2858973649705415E-3</v>
       </c>
       <c r="D170" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>5.2253267631792647E-6</v>
       </c>
       <c r="E170" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>85</v>
       </c>
       <c r="F170" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>1.3451875657683507E-2</v>
       </c>
       <c r="G170" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>7.0290445889053301E-8</v>
       </c>
       <c r="H170" s="5"/>
@@ -9794,23 +10256,23 @@
         <v>178.16999799999999</v>
       </c>
       <c r="C171" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>1.9152926171707402E-2</v>
       </c>
       <c r="D171" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>3.6683458093887439E-4</v>
       </c>
       <c r="E171" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>84</v>
       </c>
       <c r="F171" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>1.415986911335106E-2</v>
       </c>
       <c r="G171" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>5.1943296523454471E-6</v>
       </c>
       <c r="H171" s="5"/>
@@ -9826,23 +10288,23 @@
         <v>176.970001</v>
       </c>
       <c r="C172" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>-6.7579071368753119E-3</v>
       </c>
       <c r="D172" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>4.5669308870630277E-5</v>
       </c>
       <c r="E172" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>83</v>
       </c>
       <c r="F172" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>1.49051253824748E-2</v>
       </c>
       <c r="G172" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>6.8070677484771291E-7</v>
       </c>
       <c r="H172" s="5"/>
@@ -9858,23 +10320,23 @@
         <v>176.25</v>
       </c>
       <c r="C173" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>-4.0767906413907524E-3</v>
       </c>
       <c r="D173" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>1.6620221933731223E-5</v>
       </c>
       <c r="E173" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>82</v>
       </c>
       <c r="F173" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>1.5689605665762947E-2</v>
       </c>
       <c r="G173" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>2.6076472821770701E-7</v>
       </c>
       <c r="H173" s="5"/>
@@ -9890,23 +10352,23 @@
         <v>179.240005</v>
       </c>
       <c r="C174" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>1.6822276121122831E-2</v>
       </c>
       <c r="D174" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>2.8298897389529939E-4</v>
       </c>
       <c r="E174" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>81</v>
       </c>
       <c r="F174" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>1.6515374385013628E-2</v>
       </c>
       <c r="G174" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>4.6736688507117179E-6</v>
       </c>
       <c r="H174" s="5"/>
@@ -9922,23 +10384,23 @@
         <v>178.240005</v>
       </c>
       <c r="C175" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>-5.5947330225174317E-3</v>
       </c>
       <c r="D175" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>3.1301037593247035E-5</v>
       </c>
       <c r="E175" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>80</v>
       </c>
       <c r="F175" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>1.7384604615803819E-2</v>
       </c>
       <c r="G175" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>5.4415616262301129E-7</v>
       </c>
       <c r="H175" s="5"/>
@@ -9954,23 +10416,23 @@
         <v>170.800003</v>
       </c>
       <c r="C176" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>-4.2637685872111253E-2</v>
       </c>
       <c r="D176" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>1.8179722565288354E-3</v>
       </c>
       <c r="E176" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>79</v>
       </c>
       <c r="F176" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>1.8299583806109285E-2</v>
       </c>
       <c r="G176" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>3.3268135665531029E-5</v>
       </c>
       <c r="H176" s="5"/>
@@ -9986,23 +10448,23 @@
         <v>182.279999</v>
       </c>
       <c r="C177" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>6.5050661990744274E-2</v>
       </c>
       <c r="D177" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>4.2315886254340618E-3</v>
       </c>
       <c r="E177" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>78</v>
       </c>
       <c r="F177" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>1.926271979590451E-2</v>
       </c>
       <c r="G177" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>8.1511905983273062E-5</v>
       </c>
       <c r="H177" s="5"/>
@@ -10018,23 +10480,23 @@
         <v>185.13000500000001</v>
       </c>
       <c r="C178" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>1.5514347099516761E-2</v>
       </c>
       <c r="D178" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>2.4069496592428412E-4</v>
       </c>
       <c r="E178" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>77</v>
       </c>
       <c r="F178" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>2.0276547153583693E-2</v>
       </c>
       <c r="G178" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>4.8804628261939669E-6</v>
       </c>
       <c r="H178" s="5"/>
@@ -10050,23 +10512,23 @@
         <v>190.070007</v>
       </c>
       <c r="C179" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>2.633415418214918E-2</v>
       </c>
       <c r="D179" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>6.9348767648920516E-4</v>
       </c>
       <c r="E179" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>76</v>
       </c>
       <c r="F179" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>2.1343733845877573E-2</v>
       </c>
       <c r="G179" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>1.4801616392381644E-5</v>
       </c>
       <c r="H179" s="5"/>
@@ -10082,23 +10544,23 @@
         <v>187.5</v>
       </c>
       <c r="C180" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>-1.3613616780816944E-2</v>
       </c>
       <c r="D180" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>1.8533056185494071E-4</v>
       </c>
       <c r="E180" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>75</v>
       </c>
       <c r="F180" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>2.2467088258818501E-2</v>
       </c>
       <c r="G180" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>4.1638380902513746E-6</v>
       </c>
       <c r="H180" s="5"/>
@@ -10114,23 +10576,23 @@
         <v>182.91000399999999</v>
       </c>
       <c r="C181" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>-2.4784594953952806E-2</v>
       </c>
       <c r="D181" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>6.1427614703150283E-4</v>
       </c>
       <c r="E181" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>74</v>
       </c>
       <c r="F181" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>2.364956658823E-2</v>
       </c>
       <c r="G181" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>1.4527364642782887E-5</v>
       </c>
       <c r="H181" s="5"/>
@@ -10146,23 +10608,23 @@
         <v>194.19000199999999</v>
       </c>
       <c r="C182" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>5.9842821068207284E-2</v>
       </c>
       <c r="D182" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>3.5811632334014736E-3</v>
       </c>
       <c r="E182" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>73</v>
       </c>
       <c r="F182" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>2.4894280619189475E-2</v>
       </c>
       <c r="G182" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>8.9150482475420224E-5</v>
       </c>
       <c r="H182" s="5"/>
@@ -10178,23 +10640,23 @@
         <v>204.71000699999999</v>
       </c>
       <c r="C183" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>5.2757306122523814E-2</v>
       </c>
       <c r="D183" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>2.7833333493056888E-3</v>
       </c>
       <c r="E183" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>72</v>
       </c>
       <c r="F183" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>2.6204505914936286E-2</v>
       </c>
       <c r="G183" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>7.293587521512034E-5</v>
       </c>
       <c r="H183" s="5"/>
@@ -10210,23 +10672,23 @@
         <v>202.270004</v>
       </c>
       <c r="C184" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>-1.1990919306692223E-2</v>
       </c>
       <c r="D184" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>1.4378214581960429E-4</v>
       </c>
       <c r="E184" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>71</v>
       </c>
       <c r="F184" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>2.7583690436775037E-2</v>
       </c>
       <c r="G184" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>3.9660422006232125E-6</v>
       </c>
       <c r="H184" s="5"/>
@@ -10242,23 +10704,23 @@
         <v>205.259995</v>
       </c>
       <c r="C185" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>1.4673985517667267E-2</v>
       </c>
       <c r="D185" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>2.1532585097270868E-4</v>
       </c>
       <c r="E185" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>70</v>
       </c>
       <c r="F185" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>2.903546361765794E-2</v>
       </c>
       <c r="G185" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>6.2520859118593184E-6</v>
       </c>
       <c r="H185" s="5"/>
@@ -10274,23 +10736,23 @@
         <v>207.070007</v>
       </c>
       <c r="C186" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>8.7794902987073774E-3</v>
       </c>
       <c r="D186" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>7.7079449905096954E-5</v>
       </c>
       <c r="E186" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>69</v>
       </c>
       <c r="F186" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>3.0563645913324146E-2</v>
       </c>
       <c r="G186" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>2.3558290140931897E-6</v>
       </c>
       <c r="H186" s="5"/>
@@ -10306,23 +10768,23 @@
         <v>208.470001</v>
       </c>
       <c r="C187" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>6.7382166342725381E-3</v>
       </c>
       <c r="D187" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>4.540356341038713E-5</v>
       </c>
       <c r="E187" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>68</v>
       </c>
       <c r="F187" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>3.2172258856130675E-2</v>
       </c>
       <c r="G187" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>1.4607351950297181E-6</v>
       </c>
       <c r="H187" s="5"/>
@@ -10338,23 +10800,23 @@
         <v>211.259995</v>
       </c>
       <c r="C188" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>1.3294427936298307E-2</v>
       </c>
       <c r="D188" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>1.7674181415342887E-4</v>
       </c>
       <c r="E188" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>67</v>
       </c>
       <c r="F188" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>3.3865535638032296E-2</v>
       </c>
       <c r="G188" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>5.9854562059434261E-6</v>
       </c>
       <c r="H188" s="5"/>
@@ -10370,23 +10832,23 @@
         <v>212.35000600000001</v>
       </c>
       <c r="C189" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>5.1463062870215738E-3</v>
       </c>
       <c r="D189" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>2.6484468399837779E-5</v>
       </c>
       <c r="E189" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>66</v>
       </c>
       <c r="F189" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>3.5647932250560309E-2</v>
       </c>
       <c r="G189" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>9.4411653520952254E-7</v>
       </c>
       <c r="H189" s="5"/>
@@ -10402,23 +10864,23 @@
         <v>213.179993</v>
       </c>
       <c r="C190" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>3.9009614103704842E-3</v>
       </c>
       <c r="D190" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>1.5217499925199677E-5</v>
       </c>
       <c r="E190" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>65</v>
       </c>
       <c r="F190" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>3.7524139211116116E-2</v>
       </c>
       <c r="G190" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>5.7102358563834173E-7</v>
       </c>
       <c r="H190" s="5"/>
@@ -10434,23 +10896,23 @@
         <v>210.10000600000001</v>
       </c>
       <c r="C191" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>-1.4553210016105192E-2</v>
       </c>
       <c r="D191" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>2.117959217728645E-4</v>
       </c>
       <c r="E191" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>64</v>
       </c>
       <c r="F191" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>3.9499093906438021E-2</v>
       </c>
       <c r="G191" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>8.3657470031069766E-6</v>
       </c>
       <c r="H191" s="5"/>
@@ -10466,23 +10928,23 @@
         <v>205.10000600000001</v>
       </c>
       <c r="C192" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>-2.4085942076427055E-2</v>
       </c>
       <c r="D192" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>5.8013260570899926E-4</v>
       </c>
       <c r="E192" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>63</v>
       </c>
       <c r="F192" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>4.1577993585724227E-2</v>
       </c>
       <c r="G192" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>2.4120749759038254E-5</v>
       </c>
       <c r="H192" s="5"/>
@@ -10498,23 +10960,23 @@
         <v>206.80999800000001</v>
       </c>
       <c r="C193" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>8.3027933615157489E-3</v>
       </c>
       <c r="D193" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>6.8936377604029986E-5</v>
       </c>
       <c r="E193" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>62</v>
       </c>
       <c r="F193" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>4.3766309037604451E-2</v>
       </c>
       <c r="G193" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>3.0170908061509707E-6</v>
       </c>
       <c r="H193" s="5"/>
@@ -10530,23 +10992,23 @@
         <v>210.88000500000001</v>
       </c>
       <c r="C194" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>1.9488787330436377E-2</v>
       </c>
       <c r="D194" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>3.7981283161097744E-4</v>
       </c>
       <c r="E194" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>61</v>
       </c>
       <c r="F194" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>4.606979898695205E-2</v>
       </c>
       <c r="G194" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>1.7497900804982797E-5</v>
       </c>
       <c r="H194" s="5"/>
@@ -10562,23 +11024,23 @@
         <v>213.19000199999999</v>
       </c>
       <c r="C195" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>1.0894521233444626E-2</v>
       </c>
       <c r="D195" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>1.186905929059758E-4</v>
       </c>
       <c r="E195" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>60</v>
       </c>
       <c r="F195" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>4.8494525249423222E-2</v>
       </c>
       <c r="G195" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>5.7558439545478558E-6</v>
       </c>
       <c r="H195" s="5"/>
@@ -10594,23 +11056,23 @@
         <v>216.88000500000001</v>
       </c>
       <c r="C196" s="5">
-        <f t="shared" ref="C196:C254" si="15">+LN(B196/B195)</f>
+        <f t="shared" ref="C196:C254" si="27">+LN(B196/B195)</f>
         <v>1.7160431986879703E-2</v>
       </c>
       <c r="D196" s="5">
-        <f t="shared" ref="D196:D254" si="16">+C196^2</f>
+        <f t="shared" ref="D196:D254" si="28">+C196^2</f>
         <v>2.9448042597632411E-4</v>
       </c>
       <c r="E196" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>59</v>
       </c>
       <c r="F196" s="8">
-        <f t="shared" ref="F196:F254" si="17">+$J$9^(E196-1)</f>
+        <f t="shared" ref="F196:F254" si="29">+$J$9^(E196-1)</f>
         <v>5.1046868683603391E-2</v>
       </c>
       <c r="G196" s="5">
-        <f t="shared" ref="G196:G254" si="18">+F196*D196</f>
+        <f t="shared" ref="G196:G254" si="30">+F196*D196</f>
         <v>1.5032303634705006E-5</v>
       </c>
       <c r="H196" s="5"/>
@@ -10626,23 +11088,23 @@
         <v>229.970001</v>
       </c>
       <c r="C197" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>5.860464173699053E-2</v>
       </c>
       <c r="D197" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>3.4345040331210126E-3</v>
       </c>
       <c r="E197" s="2">
-        <f t="shared" ref="E197:E254" si="19">+E196-1</f>
+        <f t="shared" ref="E197:E254" si="31">+E196-1</f>
         <v>58</v>
       </c>
       <c r="F197" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>5.3733545982740404E-2</v>
       </c>
       <c r="G197" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>1.845480803916153E-4</v>
       </c>
       <c r="H197" s="5"/>
@@ -10658,23 +11120,23 @@
         <v>231.38999899999999</v>
       </c>
       <c r="C198" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>6.1557243106856356E-3</v>
       </c>
       <c r="D198" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>3.7892941789166146E-5</v>
       </c>
       <c r="E198" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>57</v>
       </c>
       <c r="F198" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>5.6561627350253066E-2</v>
       </c>
       <c r="G198" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>2.1432864526836473E-6</v>
       </c>
       <c r="H198" s="5"/>
@@ -10690,23 +11152,23 @@
         <v>234.91000399999999</v>
       </c>
       <c r="C199" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>1.5097884801162016E-2</v>
       </c>
       <c r="D199" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>2.2794612546915899E-4</v>
       </c>
       <c r="E199" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>56</v>
       </c>
       <c r="F199" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>5.9538555105529543E-2</v>
       </c>
       <c r="G199" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>1.3571582952337474E-5</v>
       </c>
       <c r="H199" s="5"/>
@@ -10722,23 +11184,23 @@
         <v>232.199997</v>
       </c>
       <c r="C200" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>-1.1603422749577166E-2</v>
       </c>
       <c r="D200" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>1.3463941950540492E-4</v>
       </c>
       <c r="E200" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>55</v>
       </c>
       <c r="F200" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>6.2672163268978454E-2</v>
       </c>
       <c r="G200" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>8.4381436816832194E-6</v>
       </c>
       <c r="H200" s="5"/>
@@ -10754,23 +11216,23 @@
         <v>229.13999899999999</v>
       </c>
       <c r="C201" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>-1.3265890242558771E-2</v>
       </c>
       <c r="D201" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>1.7598384392761599E-4</v>
       </c>
       <c r="E201" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>54</v>
       </c>
       <c r="F201" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>6.5970698177872072E-2</v>
       </c>
       <c r="G201" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>1.16097770519305E-5</v>
       </c>
       <c r="H201" s="5"/>
@@ -10786,23 +11248,23 @@
         <v>225.46000699999999</v>
       </c>
       <c r="C202" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>-1.6190375437314983E-2</v>
       </c>
       <c r="D202" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>2.6212825680121233E-4</v>
       </c>
       <c r="E202" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>53</v>
       </c>
       <c r="F202" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>6.9442840187233748E-2</v>
       </c>
       <c r="G202" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>1.8202930645604755E-5</v>
       </c>
       <c r="H202" s="5"/>
@@ -10818,23 +11280,23 @@
         <v>225.08999600000001</v>
       </c>
       <c r="C203" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>-1.6424862089432267E-3</v>
       </c>
       <c r="D203" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>2.6977609465686931E-6</v>
       </c>
       <c r="E203" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>52</v>
       </c>
       <c r="F203" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>7.3097726512877631E-2</v>
       </c>
       <c r="G203" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>1.972001918694002E-7</v>
       </c>
       <c r="H203" s="5"/>
@@ -10850,23 +11312,23 @@
         <v>231.91000399999999</v>
       </c>
       <c r="C204" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>2.9849078160110561E-2</v>
       </c>
       <c r="D204" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>8.9096746700838931E-4</v>
       </c>
       <c r="E204" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>51</v>
       </c>
       <c r="F204" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>7.6944975276713304E-2</v>
       </c>
       <c r="G204" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>6.8555469721316391E-5</v>
       </c>
       <c r="H204" s="5"/>
@@ -10882,23 +11344,23 @@
         <v>232.720001</v>
       </c>
       <c r="C205" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>3.4866358687674869E-3</v>
       </c>
       <c r="D205" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>1.2156629681376007E-5</v>
       </c>
       <c r="E205" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>50</v>
       </c>
       <c r="F205" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>8.0994710817592949E-2</v>
       </c>
       <c r="G205" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>9.8462270555961683E-7</v>
       </c>
       <c r="H205" s="5"/>
@@ -10914,23 +11376,23 @@
         <v>230.16000399999999</v>
       </c>
       <c r="C206" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>-1.1061281861448755E-2</v>
       </c>
       <c r="D206" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>1.2235195641841523E-4</v>
       </c>
       <c r="E206" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>49</v>
       </c>
       <c r="F206" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>8.5257590334308367E-2</v>
       </c>
       <c r="G206" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>1.0431432976922398E-5</v>
       </c>
       <c r="H206" s="5"/>
@@ -10946,23 +11408,23 @@
         <v>226.28999300000001</v>
       </c>
       <c r="C207" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>-1.6957405022615512E-2</v>
       </c>
       <c r="D207" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>2.8755358510102581E-4</v>
       </c>
       <c r="E207" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>48</v>
       </c>
       <c r="F207" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>8.9744831930850921E-2</v>
       </c>
       <c r="G207" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>2.5806448166005199E-5</v>
       </c>
       <c r="H207" s="5"/>
@@ -10978,23 +11440,23 @@
         <v>230.770004</v>
       </c>
       <c r="C208" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>1.9604229249871947E-2</v>
       </c>
       <c r="D208" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>3.8432580448153481E-4</v>
       </c>
       <c r="E208" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>47</v>
       </c>
       <c r="F208" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>9.44682441377378E-2</v>
       </c>
       <c r="G208" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>3.6306583926194115E-5</v>
       </c>
       <c r="H208" s="5"/>
@@ -11010,23 +11472,23 @@
         <v>231.39999399999999</v>
       </c>
       <c r="C209" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>2.7262279806854767E-3</v>
       </c>
       <c r="D209" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>7.4323190026724121E-6</v>
       </c>
       <c r="E209" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>46</v>
       </c>
       <c r="F209" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>9.9440256987092426E-2</v>
       </c>
       <c r="G209" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>7.3907171163579513E-7</v>
       </c>
       <c r="H209" s="5"/>
@@ -11042,23 +11504,23 @@
         <v>238.66999799999999</v>
       </c>
       <c r="C210" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>3.0934047465232296E-2</v>
       </c>
       <c r="D210" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>9.5691529258124463E-4</v>
       </c>
       <c r="E210" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>45</v>
       </c>
       <c r="F210" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0.10467395472325518</v>
       </c>
       <c r="G210" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>1.0016410800963968E-4</v>
       </c>
       <c r="H210" s="5"/>
@@ -11074,23 +11536,23 @@
         <v>236.729996</v>
       </c>
       <c r="C211" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>-8.1616019915146908E-3</v>
       </c>
       <c r="D211" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>6.6611747067896562E-5</v>
       </c>
       <c r="E211" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>44</v>
       </c>
       <c r="F211" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0.11018311023500546</v>
       </c>
       <c r="G211" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>7.3394894701283483E-6</v>
       </c>
       <c r="H211" s="5"/>
@@ -11106,23 +11568,23 @@
         <v>224.429993</v>
       </c>
       <c r="C212" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>-5.3356410941869825E-2</v>
       </c>
       <c r="D212" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>2.846906588597686E-3</v>
       </c>
       <c r="E212" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>43</v>
       </c>
       <c r="F212" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0.11598222130000577</v>
       </c>
       <c r="G212" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>3.3019054997918129E-4</v>
       </c>
       <c r="H212" s="5"/>
@@ -11138,23 +11600,23 @@
         <v>228.58000200000001</v>
       </c>
       <c r="C213" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>1.8322443856827176E-2</v>
       </c>
       <c r="D213" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>3.3571194888658393E-4</v>
       </c>
       <c r="E213" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>42</v>
       </c>
       <c r="F213" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0.12208654873684816</v>
       </c>
       <c r="G213" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>4.0985913209284208E-5</v>
       </c>
       <c r="H213" s="5"/>
@@ -11170,23 +11632,23 @@
         <v>232.5</v>
       </c>
       <c r="C214" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>1.7003957808287208E-2</v>
       </c>
       <c r="D214" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>2.8913458114601149E-4</v>
       </c>
       <c r="E214" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>41</v>
       </c>
       <c r="F214" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0.12851215656510334</v>
       </c>
       <c r="G214" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>3.7157308560621807E-5</v>
       </c>
       <c r="H214" s="5"/>
@@ -11202,23 +11664,23 @@
         <v>235.64999399999999</v>
       </c>
       <c r="C215" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>1.3457402880838893E-2</v>
       </c>
       <c r="D215" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>1.8110169229721096E-4</v>
       </c>
       <c r="E215" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>40</v>
       </c>
       <c r="F215" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0.13527595427905614</v>
       </c>
       <c r="G215" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>2.4498704247057204E-5</v>
       </c>
       <c r="H215" s="5"/>
@@ -11234,23 +11696,23 @@
         <v>235.529999</v>
       </c>
       <c r="C216" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>-5.093382757197268E-4</v>
       </c>
       <c r="D216" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>2.5942547911314444E-7</v>
       </c>
       <c r="E216" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>39</v>
       </c>
       <c r="F216" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0.14239574134637487</v>
       </c>
       <c r="G216" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>3.6941083422454688E-8</v>
       </c>
       <c r="H216" s="5"/>
@@ -11266,23 +11728,23 @@
         <v>235.94000199999999</v>
       </c>
       <c r="C217" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>1.7392542578975705E-3</v>
       </c>
       <c r="D217" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>3.0250053736148283E-6</v>
       </c>
       <c r="E217" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>38</v>
       </c>
       <c r="F217" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0.14989025404881567</v>
       </c>
       <c r="G217" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>4.5341882395015922E-7</v>
       </c>
       <c r="H217" s="5"/>
@@ -11298,23 +11760,23 @@
         <v>238.78999300000001</v>
       </c>
       <c r="C218" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>1.2006931389831237E-2</v>
       </c>
       <c r="D218" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>1.4416640140011469E-4</v>
       </c>
       <c r="E218" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>37</v>
       </c>
       <c r="F218" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0.15777921478822701</v>
       </c>
       <c r="G218" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>2.2746461611754445E-5</v>
       </c>
       <c r="H218" s="5"/>
@@ -11330,23 +11792,23 @@
         <v>239.220001</v>
       </c>
       <c r="C219" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>1.7991595213121487E-3</v>
       </c>
       <c r="D219" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>3.23697498312816E-6</v>
       </c>
       <c r="E219" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>36</v>
       </c>
       <c r="F219" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0.16608338398760736</v>
       </c>
       <c r="G219" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>5.3760775908115309E-7</v>
       </c>
       <c r="H219" s="5"/>
@@ -11362,23 +11824,23 @@
         <v>242.240005</v>
       </c>
       <c r="C220" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>1.2545356088199452E-2</v>
       </c>
       <c r="D220" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>1.5738595937972306E-4</v>
       </c>
       <c r="E220" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>35</v>
       </c>
       <c r="F220" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0.17482461472379726</v>
       </c>
       <c r="G220" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>2.7514939711495288E-5</v>
       </c>
       <c r="H220" s="5"/>
@@ -11394,23 +11856,23 @@
         <v>234.020004</v>
       </c>
       <c r="C221" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>-3.4522392006402759E-2</v>
       </c>
       <c r="D221" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>1.1917955498437411E-3</v>
       </c>
       <c r="E221" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>34</v>
       </c>
       <c r="F221" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0.18402591023557605</v>
       </c>
       <c r="G221" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>2.1932126087470329E-4</v>
       </c>
       <c r="H221" s="5"/>
@@ -11426,23 +11888,23 @@
         <v>235.679993</v>
       </c>
       <c r="C222" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>7.0683241296619331E-3</v>
       </c>
       <c r="D222" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>4.996120600196112E-5</v>
       </c>
       <c r="E222" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>33</v>
       </c>
       <c r="F222" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0.19371148445850112</v>
       </c>
       <c r="G222" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>9.6780593799768635E-6</v>
       </c>
       <c r="H222" s="5"/>
@@ -11458,23 +11920,23 @@
         <v>216.08000200000001</v>
       </c>
       <c r="C223" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>-8.682620427283852E-2</v>
       </c>
       <c r="D223" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>7.5387897484286816E-3</v>
       </c>
       <c r="E223" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>32</v>
       </c>
       <c r="F223" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0.20390682574579064</v>
       </c>
       <c r="G223" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>1.5372106875670001E-3</v>
       </c>
       <c r="H223" s="5"/>
@@ -11490,23 +11952,23 @@
         <v>220.63999899999999</v>
       </c>
       <c r="C224" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>2.0883690772530571E-2</v>
       </c>
       <c r="D224" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>4.361285402826785E-4</v>
       </c>
       <c r="E224" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>31</v>
       </c>
       <c r="F224" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0.21463876394293749</v>
       </c>
       <c r="G224" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>9.3610090806511731E-5</v>
       </c>
       <c r="H224" s="5"/>
@@ -11522,23 +11984,23 @@
         <v>227.070007</v>
       </c>
       <c r="C225" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>2.8725961303961624E-2</v>
       </c>
       <c r="D225" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>8.2518085283670068E-4</v>
       </c>
       <c r="E225" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>30</v>
       </c>
       <c r="F225" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0.2259355409925658</v>
       </c>
       <c r="G225" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>1.8643768240236678E-4</v>
       </c>
       <c r="H225" s="5"/>
@@ -11554,23 +12016,23 @@
         <v>237.550003</v>
       </c>
       <c r="C226" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>4.5119769445167143E-2</v>
       </c>
       <c r="D226" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>2.0357935947850386E-3</v>
       </c>
       <c r="E226" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>29</v>
       </c>
       <c r="F226" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0.23782688525533241</v>
       </c>
       <c r="G226" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>4.8416644967048207E-4</v>
       </c>
       <c r="H226" s="5"/>
@@ -11586,23 +12048,23 @@
         <v>233.41999799999999</v>
       </c>
       <c r="C227" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>-1.7538742845889077E-2</v>
       </c>
       <c r="D227" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>3.0760750061422526E-4</v>
       </c>
       <c r="E227" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>28</v>
       </c>
       <c r="F227" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0.2503440897424552</v>
       </c>
       <c r="G227" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>7.7007719739219954E-5</v>
       </c>
       <c r="H227" s="5"/>
@@ -11618,23 +12080,23 @@
         <v>240.279999</v>
       </c>
       <c r="C228" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>2.896550840418791E-2</v>
       </c>
       <c r="D228" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>8.3900067711308046E-4</v>
       </c>
       <c r="E228" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>27</v>
       </c>
       <c r="F228" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0.26352009446574232</v>
       </c>
       <c r="G228" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>2.2109353768966073E-4</v>
       </c>
       <c r="H228" s="5"/>
@@ -11650,23 +12112,23 @@
         <v>240.86000100000001</v>
       </c>
       <c r="C229" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>2.4109501639739015E-3</v>
       </c>
       <c r="D229" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>5.8126806931657826E-6</v>
       </c>
       <c r="E229" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>26</v>
       </c>
       <c r="F229" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0.27738957312183399</v>
       </c>
       <c r="G229" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>1.6123770161707825E-6</v>
       </c>
       <c r="H229" s="5"/>
@@ -11682,23 +12144,23 @@
         <v>243.58000200000001</v>
       </c>
       <c r="C230" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>1.1229582885695944E-2</v>
       </c>
       <c r="D230" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>1.2610353178671524E-4</v>
       </c>
       <c r="E230" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>25</v>
       </c>
       <c r="F230" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0.29198902433877266</v>
       </c>
       <c r="G230" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>3.6820847212076389E-5</v>
       </c>
       <c r="H230" s="5"/>
@@ -11714,23 +12176,23 @@
         <v>244.5</v>
       </c>
       <c r="C231" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>3.769870045107533E-3</v>
       </c>
       <c r="D231" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>1.4211920156999073E-5</v>
       </c>
       <c r="E231" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>24</v>
       </c>
       <c r="F231" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0.30735686772502385</v>
       </c>
       <c r="G231" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>4.3681312638133644E-6</v>
       </c>
       <c r="H231" s="5"/>
@@ -11746,23 +12208,23 @@
         <v>245.070007</v>
       </c>
       <c r="C232" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>2.3286036702281476E-3</v>
       </c>
       <c r="D232" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>5.4223950529999997E-6</v>
       </c>
       <c r="E232" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>23</v>
       </c>
       <c r="F232" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0.32353354497370929</v>
       </c>
       <c r="G232" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>1.7543266937449941E-6</v>
       </c>
       <c r="H232" s="5"/>
@@ -11778,23 +12240,23 @@
         <v>239</v>
       </c>
       <c r="C233" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>-2.5080360653644197E-2</v>
       </c>
       <c r="D233" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>6.2902449051686394E-4</v>
       </c>
       <c r="E233" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>22</v>
       </c>
       <c r="F233" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0.34056162628811509</v>
       </c>
       <c r="G233" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>2.1422160346547622E-4</v>
       </c>
       <c r="H233" s="5"/>
@@ -11810,23 +12272,23 @@
         <v>239.729996</v>
       </c>
       <c r="C234" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>3.0497214375324894E-3</v>
       </c>
       <c r="D234" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>9.3008008465452333E-6</v>
       </c>
       <c r="E234" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>21</v>
       </c>
       <c r="F234" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0.35848592240854216</v>
       </c>
       <c r="G234" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>3.3342061706119177E-6</v>
       </c>
       <c r="H234" s="5"/>
@@ -11842,23 +12304,23 @@
         <v>240.279999</v>
       </c>
       <c r="C235" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>2.2916324511062535E-3</v>
       </c>
       <c r="D235" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>5.2515792909632551E-6</v>
       </c>
       <c r="E235" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>20</v>
       </c>
       <c r="F235" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0.37735360253530753</v>
       </c>
       <c r="G235" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>1.9817023644448004E-6</v>
       </c>
       <c r="H235" s="5"/>
@@ -11874,23 +12336,23 @@
         <v>240.929993</v>
       </c>
       <c r="C236" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>2.701499994248624E-3</v>
       </c>
       <c r="D236" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>7.2981022189253156E-6</v>
       </c>
       <c r="E236" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>19</v>
       </c>
       <c r="F236" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0.39721431845821847</v>
       </c>
       <c r="G236" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>2.8989106989288313E-6</v>
       </c>
       <c r="H236" s="5"/>
@@ -11906,23 +12368,23 @@
         <v>242.029999</v>
       </c>
       <c r="C237" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>4.5552754694516548E-3</v>
       </c>
       <c r="D237" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>2.0750534602587994E-5</v>
       </c>
       <c r="E237" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>18</v>
       </c>
       <c r="F237" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0.41812033521917735</v>
       </c>
       <c r="G237" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>8.676220484011231E-6</v>
       </c>
       <c r="H237" s="5"/>
@@ -11938,23 +12400,23 @@
         <v>245.41999799999999</v>
       </c>
       <c r="C238" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>1.3909339115256969E-2</v>
       </c>
       <c r="D238" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>1.9346971462321752E-4</v>
       </c>
       <c r="E238" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>17</v>
       </c>
       <c r="F238" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0.44012666865176564</v>
       </c>
       <c r="G238" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>8.5151180982124522E-5</v>
       </c>
       <c r="H238" s="5"/>
@@ -11970,23 +12432,23 @@
         <v>241.75</v>
       </c>
       <c r="C239" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>-1.5066886065702891E-2</v>
       </c>
       <c r="D239" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>2.2701105571687192E-4</v>
       </c>
       <c r="E239" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>16</v>
       </c>
       <c r="F239" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0.46329123015975332</v>
       </c>
       <c r="G239" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>1.0517223126293389E-4</v>
       </c>
       <c r="H239" s="5"/>
@@ -12002,23 +12464,23 @@
         <v>239.86999499999999</v>
       </c>
       <c r="C240" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>-7.8070452570894568E-3</v>
       </c>
       <c r="D240" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>6.0949955646242982E-5</v>
       </c>
       <c r="E240" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>15</v>
       </c>
       <c r="F240" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0.48767497911552976</v>
       </c>
       <c r="G240" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>2.9723768346874013E-5</v>
       </c>
       <c r="H240" s="5"/>
@@ -12034,23 +12496,23 @@
         <v>232.60000600000001</v>
       </c>
       <c r="C241" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>-3.0776823196393705E-2</v>
       </c>
       <c r="D241" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>9.4721284606207761E-4</v>
       </c>
       <c r="E241" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>14</v>
       </c>
       <c r="F241" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0.51334208327950503</v>
       </c>
       <c r="G241" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>4.8624421570661602E-4</v>
       </c>
       <c r="H241" s="5"/>
@@ -12066,23 +12528,23 @@
         <v>230.71000699999999</v>
       </c>
       <c r="C242" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>-8.1587249612830072E-3</v>
       </c>
       <c r="D242" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>6.656479299386241E-5</v>
       </c>
       <c r="E242" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>13</v>
       </c>
       <c r="F242" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0.54036008766263688</v>
       </c>
       <c r="G242" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>3.5968957377408767E-5</v>
       </c>
       <c r="H242" s="5"/>
@@ -12098,23 +12560,23 @@
         <v>233.5</v>
       </c>
       <c r="C243" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>1.2020536190314511E-2</v>
       </c>
       <c r="D243" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>1.4449329030266088E-4</v>
       </c>
       <c r="E243" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>12</v>
       </c>
       <c r="F243" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0.56880009227645989</v>
       </c>
       <c r="G243" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>8.2187796857482822E-5</v>
       </c>
       <c r="H243" s="5"/>
@@ -12130,23 +12592,23 @@
         <v>230.11999499999999</v>
       </c>
       <c r="C244" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>-1.458118684165379E-2</v>
       </c>
       <c r="D244" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>2.1261100971121762E-4</v>
       </c>
       <c r="E244" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>11</v>
       </c>
       <c r="F244" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0.5987369392383789</v>
       </c>
       <c r="G244" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>1.2729806520287568E-4</v>
       </c>
       <c r="H244" s="5"/>
@@ -12162,23 +12624,23 @@
         <v>233.28999300000001</v>
       </c>
       <c r="C245" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>1.3681394569676195E-2</v>
       </c>
       <c r="D245" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>1.8718055737116526E-4</v>
       </c>
       <c r="E245" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>10</v>
       </c>
       <c r="F245" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0.6302494097246093</v>
       </c>
       <c r="G245" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>1.1797043579510027E-4</v>
       </c>
       <c r="H245" s="5"/>
@@ -12194,23 +12656,23 @@
         <v>234.5</v>
       </c>
       <c r="C246" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>5.1733030493594599E-3</v>
       </c>
       <c r="D246" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>2.6763064440511884E-5</v>
       </c>
       <c r="E246" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>9</v>
       </c>
       <c r="F246" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0.66342043128906247</v>
       </c>
       <c r="G246" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>1.7755163753741366E-5</v>
       </c>
       <c r="H246" s="5"/>
@@ -12226,23 +12688,23 @@
         <v>253.66999799999999</v>
       </c>
       <c r="C247" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>7.857861394111379E-2</v>
       </c>
       <c r="D247" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>6.1745985689066023E-3</v>
       </c>
       <c r="E247" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>8</v>
       </c>
       <c r="F247" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0.69833729609374995</v>
       </c>
       <c r="G247" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>4.3119524690745743E-3</v>
       </c>
       <c r="H247" s="5"/>
@@ -12258,23 +12720,23 @@
         <v>251.96000699999999</v>
       </c>
       <c r="C248" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>-6.763829291532338E-3</v>
       </c>
       <c r="D248" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>4.574938668499085E-5</v>
       </c>
       <c r="E248" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>7</v>
       </c>
       <c r="F248" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0.73509189062499991</v>
       </c>
       <c r="G248" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>3.3630003153204119E-5</v>
       </c>
       <c r="H248" s="5"/>
@@ -12290,23 +12752,23 @@
         <v>249.83000200000001</v>
       </c>
       <c r="C249" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>-8.4896779730894729E-3</v>
       </c>
       <c r="D249" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>7.2074632086760579E-5</v>
       </c>
       <c r="E249" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>6</v>
       </c>
       <c r="F249" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0.77378093749999999</v>
       </c>
       <c r="G249" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>5.5769976386061182E-5</v>
       </c>
       <c r="H249" s="5"/>
@@ -12322,23 +12784,23 @@
         <v>249.11999499999999</v>
       </c>
       <c r="C250" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>-2.8460065477867668E-3</v>
       </c>
       <c r="D250" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>8.0997532700451503E-6</v>
       </c>
       <c r="E250" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>5</v>
       </c>
       <c r="F250" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0.81450624999999999</v>
       </c>
       <c r="G250" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>6.5972996619097124E-6</v>
       </c>
       <c r="H250" s="5"/>
@@ -12354,23 +12816,23 @@
         <v>265.27999899999998</v>
       </c>
       <c r="C251" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>6.2851180162288758E-2</v>
       </c>
       <c r="D251" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>3.95027084779248E-3</v>
       </c>
       <c r="E251" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>4</v>
       </c>
       <c r="F251" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0.85737499999999989</v>
       </c>
       <c r="G251" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>3.3868634681260769E-3</v>
       </c>
       <c r="H251" s="5"/>
@@ -12386,23 +12848,23 @@
         <v>268.44000199999999</v>
       </c>
       <c r="C252" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>1.184156456316484E-2</v>
       </c>
       <c r="D252" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>1.4022265130360132E-4</v>
       </c>
       <c r="E252" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>3</v>
       </c>
       <c r="F252" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0.90249999999999997</v>
       </c>
       <c r="G252" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>1.2655094280150019E-4</v>
       </c>
       <c r="H252" s="5"/>
@@ -12418,23 +12880,23 @@
         <v>263</v>
       </c>
       <c r="C253" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>-2.047340056272845E-2</v>
       </c>
       <c r="D253" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>4.1916013060192963E-4</v>
       </c>
       <c r="E253" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="F253" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0.95</v>
       </c>
       <c r="G253" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>3.9820212407183311E-4</v>
       </c>
       <c r="H253" s="5"/>
@@ -12450,23 +12912,23 @@
         <v>258.67999300000002</v>
       </c>
       <c r="C254" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>-1.6562282659833536E-2</v>
       </c>
       <c r="D254" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>2.7430920690422263E-4</v>
       </c>
       <c r="E254" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="F254" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="G254" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>2.7430920690422263E-4</v>
       </c>
       <c r="H254" s="5"/>
@@ -12482,14 +12944,38 @@
         <f>+SUM(G3:G254)</f>
         <v>1.4698711030179657E-2</v>
       </c>
+      <c r="I255" s="2"/>
+      <c r="J255" s="2"/>
     </row>
     <row r="256" spans="1:11">
       <c r="G256" s="5">
         <f>+G255*(1-J9)</f>
         <v>7.3493555150898348E-4</v>
       </c>
+      <c r="I256" s="2"/>
+      <c r="J256" s="2"/>
+    </row>
+    <row r="257" spans="9:10">
+      <c r="I257" s="2"/>
+      <c r="J257" s="2"/>
+    </row>
+    <row r="258" spans="9:10">
+      <c r="I258" s="2"/>
+      <c r="J258" s="2"/>
+    </row>
+    <row r="259" spans="9:10">
+      <c r="I259" s="2"/>
+      <c r="J259" s="2"/>
+    </row>
+    <row r="260" spans="9:10">
+      <c r="I260" s="2"/>
+      <c r="J260" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="L19:O19"/>
+    <mergeCell ref="L38:O38"/>
+  </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
   <drawing r:id="rId1"/>
 </worksheet>
